--- a/data/2018/APRIL 16-30. 2018.xlsx
+++ b/data/2018/APRIL 16-30. 2018.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\RedCrossMAAB\data\2018\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E742E13-6355-4C69-83B8-F405E6E57F3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1695" yWindow="135" windowWidth="19875" windowHeight="7695"/>
+    <workbookView xWindow="-1695" yWindow="135" windowWidth="19875" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="779">
   <si>
     <t>ID NUMBER</t>
   </si>
@@ -2380,8 +2386,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2474,6 +2480,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2520,7 +2534,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2552,9 +2566,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2586,6 +2618,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2761,15 +2811,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ821"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
@@ -2786,7 +2836,7 @@
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2856,7 +2906,7 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>176</v>
       </c>
@@ -2883,7 +2933,7 @@
       </c>
       <c r="J2" s="1">
         <f t="shared" ref="J2:J24" ca="1" si="0">DATEDIF(I2,NOW(),"Y")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1">
         <v>2389157</v>
@@ -2923,7 +2973,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>177</v>
       </c>
@@ -2990,7 +3040,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>178</v>
       </c>
@@ -3057,7 +3107,7 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>179</v>
       </c>
@@ -3124,7 +3174,7 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>164</v>
       </c>
@@ -3191,7 +3241,7 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>165</v>
       </c>
@@ -3218,7 +3268,7 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1">
         <v>2389134</v>
@@ -3258,7 +3308,7 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>166</v>
       </c>
@@ -3325,7 +3375,7 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>167</v>
       </c>
@@ -3392,7 +3442,7 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>168</v>
       </c>
@@ -3459,7 +3509,7 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>169</v>
       </c>
@@ -3526,7 +3576,7 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>170</v>
       </c>
@@ -3593,7 +3643,7 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>171</v>
       </c>
@@ -3660,7 +3710,7 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>172</v>
       </c>
@@ -3727,7 +3777,7 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
@@ -3794,7 +3844,7 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -3861,7 +3911,7 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="2:36">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,7 +3936,7 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" s="1">
         <v>2389129</v>
@@ -3898,7 +3948,9 @@
         <f t="shared" si="1"/>
         <v>43571</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -3922,7 +3974,7 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="2:36">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
@@ -3947,7 +3999,7 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="1">
         <v>2389130</v>
@@ -3959,7 +4011,9 @@
         <f t="shared" si="1"/>
         <v>43571</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -3983,7 +4037,7 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="2:36">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -4010,7 +4064,7 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="1">
         <v>2389138</v>
@@ -4050,7 +4104,7 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" spans="2:36">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>161</v>
       </c>
@@ -4117,7 +4171,7 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" spans="2:36">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>162</v>
       </c>
@@ -4184,7 +4238,7 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" spans="2:36">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>62</v>
       </c>
@@ -4251,7 +4305,7 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" spans="2:36">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
@@ -4318,7 +4372,7 @@
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" spans="2:36">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -4385,7 +4439,7 @@
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
     </row>
-    <row r="25" spans="2:36">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>5152621</v>
       </c>
@@ -4452,7 +4506,7 @@
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
     </row>
-    <row r="26" spans="2:36">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>175</v>
       </c>
@@ -4519,7 +4573,7 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
     </row>
-    <row r="27" spans="2:36" s="7" customFormat="1">
+    <row r="27" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>5152046</v>
       </c>
@@ -4556,7 +4610,9 @@
         <f t="shared" ref="M27:M90" si="7">DATE(YEAR(L27) + 1, MONTH(L27), DAY(L27))</f>
         <v>43572</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -4580,7 +4636,7 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="2:36" s="7" customFormat="1">
+    <row r="28" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>5152047</v>
       </c>
@@ -4617,7 +4673,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -4641,7 +4699,7 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
     </row>
-    <row r="29" spans="2:36" s="7" customFormat="1">
+    <row r="29" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>5152048</v>
       </c>
@@ -4678,7 +4736,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -4702,7 +4762,7 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
     </row>
-    <row r="30" spans="2:36" s="7" customFormat="1">
+    <row r="30" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>5152049</v>
       </c>
@@ -4739,7 +4799,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -4763,7 +4825,7 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
     </row>
-    <row r="31" spans="2:36" s="7" customFormat="1">
+    <row r="31" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>5152050</v>
       </c>
@@ -4800,7 +4862,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -4824,7 +4888,7 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="2:36" s="7" customFormat="1">
+    <row r="32" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>5152051</v>
       </c>
@@ -4859,7 +4923,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -4883,7 +4949,7 @@
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" spans="2:36" s="7" customFormat="1">
+    <row r="33" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>5152052</v>
       </c>
@@ -4920,7 +4986,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -4944,7 +5012,7 @@
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" spans="2:36" s="7" customFormat="1">
+    <row r="34" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>5152053</v>
       </c>
@@ -4981,7 +5049,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -5005,7 +5075,7 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
     </row>
-    <row r="35" spans="2:36" s="7" customFormat="1">
+    <row r="35" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>5152054</v>
       </c>
@@ -5042,7 +5112,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -5066,7 +5138,7 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
     </row>
-    <row r="36" spans="2:36" s="7" customFormat="1">
+    <row r="36" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>5152055</v>
       </c>
@@ -5091,7 +5163,7 @@
       </c>
       <c r="J36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K36" s="1">
         <v>2389149</v>
@@ -5103,7 +5175,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -5127,7 +5201,7 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
     </row>
-    <row r="37" spans="2:36" s="7" customFormat="1">
+    <row r="37" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>5152056</v>
       </c>
@@ -5164,7 +5238,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -5188,7 +5264,7 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
     </row>
-    <row r="38" spans="2:36" s="7" customFormat="1">
+    <row r="38" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>5152058</v>
       </c>
@@ -5225,7 +5301,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -5249,7 +5327,7 @@
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
     </row>
-    <row r="39" spans="2:36" s="7" customFormat="1">
+    <row r="39" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>5152059</v>
       </c>
@@ -5286,7 +5364,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -5310,7 +5390,7 @@
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
     </row>
-    <row r="40" spans="2:36" s="7" customFormat="1">
+    <row r="40" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>5152060</v>
       </c>
@@ -5347,7 +5427,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -5371,7 +5453,7 @@
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
     </row>
-    <row r="41" spans="2:36" s="7" customFormat="1">
+    <row r="41" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>5152061</v>
       </c>
@@ -5408,7 +5490,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -5432,7 +5516,7 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
     </row>
-    <row r="42" spans="2:36" s="7" customFormat="1">
+    <row r="42" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>5152062</v>
       </c>
@@ -5469,7 +5553,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -5493,7 +5579,7 @@
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
     </row>
-    <row r="43" spans="2:36" s="7" customFormat="1">
+    <row r="43" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>5152063</v>
       </c>
@@ -5530,7 +5616,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -5554,7 +5642,7 @@
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
     </row>
-    <row r="44" spans="2:36" s="7" customFormat="1">
+    <row r="44" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>5152064</v>
       </c>
@@ -5589,7 +5677,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -5613,7 +5703,7 @@
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
     </row>
-    <row r="45" spans="2:36" s="7" customFormat="1">
+    <row r="45" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>5152065</v>
       </c>
@@ -5650,7 +5740,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -5674,7 +5766,7 @@
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
     </row>
-    <row r="46" spans="2:36" s="7" customFormat="1">
+    <row r="46" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>5152067</v>
       </c>
@@ -5711,7 +5803,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -5735,7 +5829,7 @@
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
     </row>
-    <row r="47" spans="2:36" s="7" customFormat="1">
+    <row r="47" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>5152068</v>
       </c>
@@ -5772,7 +5866,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -5796,7 +5892,7 @@
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
     </row>
-    <row r="48" spans="2:36" s="7" customFormat="1">
+    <row r="48" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>5152069</v>
       </c>
@@ -5821,7 +5917,7 @@
       </c>
       <c r="J48" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K48" s="1">
         <v>2389149</v>
@@ -5833,7 +5929,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -5857,7 +5955,7 @@
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
     </row>
-    <row r="49" spans="2:36" s="7" customFormat="1">
+    <row r="49" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>5152070</v>
       </c>
@@ -5894,7 +5992,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -5918,7 +6018,7 @@
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
     </row>
-    <row r="50" spans="2:36" s="7" customFormat="1">
+    <row r="50" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>5152071</v>
       </c>
@@ -5955,7 +6055,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -5979,7 +6081,7 @@
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
     </row>
-    <row r="51" spans="2:36" s="7" customFormat="1">
+    <row r="51" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>5152072</v>
       </c>
@@ -6016,7 +6118,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -6040,7 +6144,7 @@
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
     </row>
-    <row r="52" spans="2:36" s="7" customFormat="1">
+    <row r="52" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>5152073</v>
       </c>
@@ -6077,7 +6181,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N52" s="1"/>
+      <c r="N52" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -6101,7 +6207,7 @@
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
     </row>
-    <row r="53" spans="2:36" s="7" customFormat="1">
+    <row r="53" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>5152074</v>
       </c>
@@ -6138,7 +6244,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N53" s="1"/>
+      <c r="N53" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -6162,7 +6270,7 @@
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
     </row>
-    <row r="54" spans="2:36" s="7" customFormat="1">
+    <row r="54" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>5152075</v>
       </c>
@@ -6199,7 +6307,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -6223,7 +6333,7 @@
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
     </row>
-    <row r="55" spans="2:36" s="7" customFormat="1">
+    <row r="55" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>5152076</v>
       </c>
@@ -6260,7 +6370,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -6284,7 +6396,7 @@
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
     </row>
-    <row r="56" spans="2:36" s="7" customFormat="1">
+    <row r="56" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>5152077</v>
       </c>
@@ -6321,7 +6433,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -6345,7 +6459,7 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
     </row>
-    <row r="57" spans="2:36" s="7" customFormat="1">
+    <row r="57" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>5152078</v>
       </c>
@@ -6382,7 +6496,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N57" s="1"/>
+      <c r="N57" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -6406,7 +6522,7 @@
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
     </row>
-    <row r="58" spans="2:36" s="7" customFormat="1">
+    <row r="58" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>5152079</v>
       </c>
@@ -6443,7 +6559,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -6467,7 +6585,7 @@
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
     </row>
-    <row r="59" spans="2:36" s="7" customFormat="1">
+    <row r="59" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>5152080</v>
       </c>
@@ -6504,7 +6622,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N59" s="1"/>
+      <c r="N59" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -6528,7 +6648,7 @@
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
     </row>
-    <row r="60" spans="2:36" s="7" customFormat="1">
+    <row r="60" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>5152081</v>
       </c>
@@ -6565,7 +6685,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -6589,7 +6711,7 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
     </row>
-    <row r="61" spans="2:36" s="7" customFormat="1">
+    <row r="61" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>5152082</v>
       </c>
@@ -6626,7 +6748,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N61" s="1"/>
+      <c r="N61" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -6650,7 +6774,7 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
     </row>
-    <row r="62" spans="2:36" s="7" customFormat="1">
+    <row r="62" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>5152083</v>
       </c>
@@ -6687,7 +6811,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N62" s="1"/>
+      <c r="N62" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -6711,7 +6837,7 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
     </row>
-    <row r="63" spans="2:36" s="7" customFormat="1">
+    <row r="63" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>5152084</v>
       </c>
@@ -6748,7 +6874,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N63" s="1"/>
+      <c r="N63" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -6772,7 +6900,7 @@
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
     </row>
-    <row r="64" spans="2:36" s="7" customFormat="1">
+    <row r="64" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>5152085</v>
       </c>
@@ -6807,7 +6935,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N64" s="1"/>
+      <c r="N64" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -6831,7 +6961,7 @@
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
     </row>
-    <row r="65" spans="2:36" s="7" customFormat="1">
+    <row r="65" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>5152086</v>
       </c>
@@ -6868,7 +6998,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -6892,7 +7024,7 @@
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
     </row>
-    <row r="66" spans="2:36" s="7" customFormat="1">
+    <row r="66" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>5152087</v>
       </c>
@@ -6929,7 +7061,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N66" s="1"/>
+      <c r="N66" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -6953,7 +7087,7 @@
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
     </row>
-    <row r="67" spans="2:36" s="7" customFormat="1">
+    <row r="67" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>5152088</v>
       </c>
@@ -6990,7 +7124,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N67" s="1"/>
+      <c r="N67" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -7014,7 +7150,7 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
     </row>
-    <row r="68" spans="2:36" s="7" customFormat="1">
+    <row r="68" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>5152089</v>
       </c>
@@ -7051,7 +7187,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N68" s="1"/>
+      <c r="N68" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -7075,7 +7213,7 @@
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
     </row>
-    <row r="69" spans="2:36" s="7" customFormat="1">
+    <row r="69" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>5152090</v>
       </c>
@@ -7110,7 +7248,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N69" s="1"/>
+      <c r="N69" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -7134,7 +7274,7 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
     </row>
-    <row r="70" spans="2:36" s="7" customFormat="1">
+    <row r="70" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>5152091</v>
       </c>
@@ -7171,7 +7311,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N70" s="1"/>
+      <c r="N70" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -7195,7 +7337,7 @@
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
     </row>
-    <row r="71" spans="2:36" s="7" customFormat="1">
+    <row r="71" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>5152092</v>
       </c>
@@ -7232,7 +7374,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N71" s="1"/>
+      <c r="N71" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -7256,7 +7400,7 @@
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
     </row>
-    <row r="72" spans="2:36" s="7" customFormat="1">
+    <row r="72" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>5152093</v>
       </c>
@@ -7291,7 +7435,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -7315,7 +7461,7 @@
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
     </row>
-    <row r="73" spans="2:36" s="7" customFormat="1">
+    <row r="73" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>5152094</v>
       </c>
@@ -7338,7 +7484,7 @@
       </c>
       <c r="J73" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K73" s="1">
         <v>2389149</v>
@@ -7350,7 +7496,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N73" s="1"/>
+      <c r="N73" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -7374,7 +7522,7 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
     </row>
-    <row r="74" spans="2:36" s="7" customFormat="1">
+    <row r="74" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>5152095</v>
       </c>
@@ -7411,7 +7559,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N74" s="1"/>
+      <c r="N74" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -7435,7 +7585,7 @@
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
     </row>
-    <row r="75" spans="2:36" s="7" customFormat="1">
+    <row r="75" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>5152096</v>
       </c>
@@ -7458,7 +7608,7 @@
       </c>
       <c r="J75" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K75" s="1">
         <v>2389149</v>
@@ -7470,7 +7620,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N75" s="1"/>
+      <c r="N75" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -7494,7 +7646,7 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
     </row>
-    <row r="76" spans="2:36" s="7" customFormat="1">
+    <row r="76" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>5152097</v>
       </c>
@@ -7531,7 +7683,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N76" s="1"/>
+      <c r="N76" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -7555,7 +7709,7 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
     </row>
-    <row r="77" spans="2:36" s="7" customFormat="1">
+    <row r="77" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>5152098</v>
       </c>
@@ -7592,7 +7746,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N77" s="1"/>
+      <c r="N77" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -7616,7 +7772,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
     </row>
-    <row r="78" spans="2:36" s="7" customFormat="1">
+    <row r="78" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>5152099</v>
       </c>
@@ -7653,7 +7809,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N78" s="1"/>
+      <c r="N78" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -7677,7 +7835,7 @@
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
     </row>
-    <row r="79" spans="2:36" s="7" customFormat="1">
+    <row r="79" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>5152100</v>
       </c>
@@ -7714,7 +7872,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N79" s="1"/>
+      <c r="N79" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -7738,7 +7898,7 @@
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
     </row>
-    <row r="80" spans="2:36" s="7" customFormat="1">
+    <row r="80" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>5152101</v>
       </c>
@@ -7775,7 +7935,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N80" s="1"/>
+      <c r="N80" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -7799,7 +7961,7 @@
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
     </row>
-    <row r="81" spans="2:36" s="7" customFormat="1">
+    <row r="81" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>5152102</v>
       </c>
@@ -7836,7 +7998,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N81" s="1"/>
+      <c r="N81" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -7860,7 +8024,7 @@
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
     </row>
-    <row r="82" spans="2:36" s="7" customFormat="1">
+    <row r="82" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>5152103</v>
       </c>
@@ -7897,7 +8061,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N82" s="1"/>
+      <c r="N82" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -7921,7 +8087,7 @@
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
     </row>
-    <row r="83" spans="2:36" s="7" customFormat="1">
+    <row r="83" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>5152104</v>
       </c>
@@ -7958,7 +8124,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N83" s="1"/>
+      <c r="N83" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -7982,7 +8150,7 @@
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
     </row>
-    <row r="84" spans="2:36" s="7" customFormat="1">
+    <row r="84" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>5152105</v>
       </c>
@@ -8019,7 +8187,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N84" s="1"/>
+      <c r="N84" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -8043,7 +8213,7 @@
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
     </row>
-    <row r="85" spans="2:36" s="7" customFormat="1">
+    <row r="85" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>5152106</v>
       </c>
@@ -8068,7 +8238,7 @@
       </c>
       <c r="J85" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K85" s="1">
         <v>2389149</v>
@@ -8080,7 +8250,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N85" s="1"/>
+      <c r="N85" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -8104,7 +8276,7 @@
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
     </row>
-    <row r="86" spans="2:36" s="7" customFormat="1">
+    <row r="86" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>5152107</v>
       </c>
@@ -8127,7 +8299,7 @@
       </c>
       <c r="J86" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K86" s="1">
         <v>2389149</v>
@@ -8139,7 +8311,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N86" s="1"/>
+      <c r="N86" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -8163,7 +8337,7 @@
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
     </row>
-    <row r="87" spans="2:36" s="7" customFormat="1">
+    <row r="87" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>5152108</v>
       </c>
@@ -8198,7 +8372,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N87" s="1"/>
+      <c r="N87" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -8222,7 +8398,7 @@
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
     </row>
-    <row r="88" spans="2:36" s="7" customFormat="1">
+    <row r="88" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>5152109</v>
       </c>
@@ -8257,7 +8433,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N88" s="1"/>
+      <c r="N88" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -8281,7 +8459,7 @@
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
     </row>
-    <row r="89" spans="2:36" s="7" customFormat="1">
+    <row r="89" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>5152110</v>
       </c>
@@ -8318,7 +8496,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N89" s="1"/>
+      <c r="N89" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -8342,7 +8522,7 @@
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
     </row>
-    <row r="90" spans="2:36" s="7" customFormat="1">
+    <row r="90" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>5152111</v>
       </c>
@@ -8379,7 +8559,9 @@
         <f t="shared" si="7"/>
         <v>43572</v>
       </c>
-      <c r="N90" s="1"/>
+      <c r="N90" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -8403,7 +8585,7 @@
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
     </row>
-    <row r="91" spans="2:36" s="7" customFormat="1">
+    <row r="91" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>5152112</v>
       </c>
@@ -8440,7 +8622,9 @@
         <f t="shared" ref="M91:M125" si="8">DATE(YEAR(L91) + 1, MONTH(L91), DAY(L91))</f>
         <v>43572</v>
       </c>
-      <c r="N91" s="1"/>
+      <c r="N91" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -8464,7 +8648,7 @@
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
     </row>
-    <row r="92" spans="2:36" s="7" customFormat="1">
+    <row r="92" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>5152113</v>
       </c>
@@ -8499,7 +8683,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N92" s="1"/>
+      <c r="N92" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -8523,7 +8709,7 @@
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
     </row>
-    <row r="93" spans="2:36" s="7" customFormat="1">
+    <row r="93" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>5152114</v>
       </c>
@@ -8560,7 +8746,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N93" s="1"/>
+      <c r="N93" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -8584,7 +8772,7 @@
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1"/>
     </row>
-    <row r="94" spans="2:36" s="7" customFormat="1">
+    <row r="94" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>5152115</v>
       </c>
@@ -8621,7 +8809,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N94" s="1"/>
+      <c r="N94" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -8645,7 +8835,7 @@
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
     </row>
-    <row r="95" spans="2:36" s="7" customFormat="1">
+    <row r="95" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>5152116</v>
       </c>
@@ -8682,7 +8872,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N95" s="1"/>
+      <c r="N95" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -8706,7 +8898,7 @@
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
     </row>
-    <row r="96" spans="2:36" s="7" customFormat="1">
+    <row r="96" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>5152117</v>
       </c>
@@ -8741,7 +8933,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N96" s="1"/>
+      <c r="N96" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -8765,7 +8959,7 @@
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
     </row>
-    <row r="97" spans="2:36" s="7" customFormat="1">
+    <row r="97" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>5152118</v>
       </c>
@@ -8800,7 +8994,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N97" s="1"/>
+      <c r="N97" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -8824,7 +9020,7 @@
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
     </row>
-    <row r="98" spans="2:36" s="7" customFormat="1">
+    <row r="98" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>5152119</v>
       </c>
@@ -8859,7 +9055,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N98" s="1"/>
+      <c r="N98" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -8883,7 +9081,7 @@
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
     </row>
-    <row r="99" spans="2:36" s="7" customFormat="1">
+    <row r="99" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>5152120</v>
       </c>
@@ -8920,7 +9118,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N99" s="1"/>
+      <c r="N99" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -8944,7 +9144,7 @@
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
     </row>
-    <row r="100" spans="2:36" s="7" customFormat="1">
+    <row r="100" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>5152121</v>
       </c>
@@ -8979,7 +9179,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N100" s="1"/>
+      <c r="N100" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -9003,7 +9205,7 @@
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1"/>
     </row>
-    <row r="101" spans="2:36" s="7" customFormat="1">
+    <row r="101" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>5152123</v>
       </c>
@@ -9040,7 +9242,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N101" s="1"/>
+      <c r="N101" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -9064,7 +9268,7 @@
       <c r="AI101" s="1"/>
       <c r="AJ101" s="1"/>
     </row>
-    <row r="102" spans="2:36" s="7" customFormat="1">
+    <row r="102" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>5152124</v>
       </c>
@@ -9101,7 +9305,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N102" s="1"/>
+      <c r="N102" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -9125,7 +9331,7 @@
       <c r="AI102" s="1"/>
       <c r="AJ102" s="1"/>
     </row>
-    <row r="103" spans="2:36" s="7" customFormat="1">
+    <row r="103" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>5152125</v>
       </c>
@@ -9162,7 +9368,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N103" s="1"/>
+      <c r="N103" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -9186,7 +9394,7 @@
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
     </row>
-    <row r="104" spans="2:36" s="7" customFormat="1">
+    <row r="104" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>5152126</v>
       </c>
@@ -9223,7 +9431,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N104" s="1"/>
+      <c r="N104" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -9247,7 +9457,7 @@
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
     </row>
-    <row r="105" spans="2:36" s="7" customFormat="1">
+    <row r="105" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>5152127</v>
       </c>
@@ -9284,7 +9494,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N105" s="1"/>
+      <c r="N105" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -9308,7 +9520,7 @@
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
     </row>
-    <row r="106" spans="2:36" s="7" customFormat="1">
+    <row r="106" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>5152134</v>
       </c>
@@ -9345,7 +9557,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N106" s="1"/>
+      <c r="N106" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -9369,7 +9583,7 @@
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
     </row>
-    <row r="107" spans="2:36" s="7" customFormat="1">
+    <row r="107" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>5152128</v>
       </c>
@@ -9404,7 +9618,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N107" s="1"/>
+      <c r="N107" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -9428,7 +9644,7 @@
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
     </row>
-    <row r="108" spans="2:36" s="7" customFormat="1">
+    <row r="108" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>5152129</v>
       </c>
@@ -9465,7 +9681,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N108" s="1"/>
+      <c r="N108" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -9489,7 +9707,7 @@
       <c r="AI108" s="1"/>
       <c r="AJ108" s="1"/>
     </row>
-    <row r="109" spans="2:36" s="7" customFormat="1">
+    <row r="109" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>5152130</v>
       </c>
@@ -9526,7 +9744,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N109" s="1"/>
+      <c r="N109" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -9550,7 +9770,7 @@
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
     </row>
-    <row r="110" spans="2:36" s="7" customFormat="1">
+    <row r="110" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>5152131</v>
       </c>
@@ -9587,7 +9807,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N110" s="1"/>
+      <c r="N110" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -9611,7 +9833,7 @@
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
     </row>
-    <row r="111" spans="2:36" s="7" customFormat="1">
+    <row r="111" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>5152132</v>
       </c>
@@ -9648,7 +9870,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N111" s="1"/>
+      <c r="N111" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -9672,7 +9896,7 @@
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
     </row>
-    <row r="112" spans="2:36" s="7" customFormat="1">
+    <row r="112" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>5152122</v>
       </c>
@@ -9707,7 +9931,9 @@
         <f t="shared" ref="M112" si="10">DATE(YEAR(L112) + 1, MONTH(L112), DAY(L112))</f>
         <v>43572</v>
       </c>
-      <c r="N112" s="1"/>
+      <c r="N112" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -9731,7 +9957,7 @@
       <c r="AI112" s="1"/>
       <c r="AJ112" s="1"/>
     </row>
-    <row r="113" spans="2:36" s="7" customFormat="1">
+    <row r="113" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>5152135</v>
       </c>
@@ -9766,7 +9992,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N113" s="1"/>
+      <c r="N113" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -9790,7 +10018,7 @@
       <c r="AI113" s="1"/>
       <c r="AJ113" s="1"/>
     </row>
-    <row r="114" spans="2:36" s="7" customFormat="1">
+    <row r="114" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>5152136</v>
       </c>
@@ -9827,7 +10055,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N114" s="1"/>
+      <c r="N114" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
@@ -9851,7 +10081,7 @@
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
     </row>
-    <row r="115" spans="2:36" s="7" customFormat="1">
+    <row r="115" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>5152137</v>
       </c>
@@ -9888,7 +10118,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N115" s="1"/>
+      <c r="N115" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
@@ -9912,7 +10144,7 @@
       <c r="AI115" s="1"/>
       <c r="AJ115" s="1"/>
     </row>
-    <row r="116" spans="2:36" s="7" customFormat="1">
+    <row r="116" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>5152133</v>
       </c>
@@ -9949,7 +10181,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N116" s="1"/>
+      <c r="N116" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
@@ -9973,7 +10207,7 @@
       <c r="AI116" s="1"/>
       <c r="AJ116" s="1"/>
     </row>
-    <row r="117" spans="2:36" s="7" customFormat="1">
+    <row r="117" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>5152138</v>
       </c>
@@ -10010,7 +10244,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N117" s="1"/>
+      <c r="N117" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
@@ -10034,7 +10270,7 @@
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
     </row>
-    <row r="118" spans="2:36" s="7" customFormat="1">
+    <row r="118" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>5152139</v>
       </c>
@@ -10071,7 +10307,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N118" s="1"/>
+      <c r="N118" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -10095,7 +10333,7 @@
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
     </row>
-    <row r="119" spans="2:36" s="7" customFormat="1">
+    <row r="119" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>5152140</v>
       </c>
@@ -10132,7 +10370,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N119" s="1"/>
+      <c r="N119" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -10156,7 +10396,7 @@
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
     </row>
-    <row r="120" spans="2:36" s="7" customFormat="1">
+    <row r="120" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>5152141</v>
       </c>
@@ -10193,7 +10433,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N120" s="1"/>
+      <c r="N120" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -10217,7 +10459,7 @@
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
     </row>
-    <row r="121" spans="2:36" s="7" customFormat="1">
+    <row r="121" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>5152142</v>
       </c>
@@ -10254,7 +10496,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N121" s="1"/>
+      <c r="N121" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
@@ -10278,7 +10522,7 @@
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
     </row>
-    <row r="122" spans="2:36" s="7" customFormat="1">
+    <row r="122" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>5152143</v>
       </c>
@@ -10315,7 +10559,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N122" s="1"/>
+      <c r="N122" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
@@ -10339,7 +10585,7 @@
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
     </row>
-    <row r="123" spans="2:36" s="7" customFormat="1">
+    <row r="123" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>5152144</v>
       </c>
@@ -10376,7 +10622,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N123" s="1"/>
+      <c r="N123" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -10400,7 +10648,7 @@
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
     </row>
-    <row r="124" spans="2:36" s="7" customFormat="1">
+    <row r="124" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>5152145</v>
       </c>
@@ -10435,7 +10683,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N124" s="1"/>
+      <c r="N124" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
@@ -10459,7 +10709,7 @@
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
     </row>
-    <row r="125" spans="2:36" s="7" customFormat="1">
+    <row r="125" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>5152146</v>
       </c>
@@ -10494,7 +10744,9 @@
         <f t="shared" si="8"/>
         <v>43572</v>
       </c>
-      <c r="N125" s="1"/>
+      <c r="N125" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
@@ -10518,7 +10770,7 @@
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
     </row>
-    <row r="126" spans="2:36">
+    <row r="126" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>64</v>
       </c>
@@ -10581,7 +10833,7 @@
       <c r="AI126" s="3"/>
       <c r="AJ126" s="3"/>
     </row>
-    <row r="127" spans="2:36" s="7" customFormat="1">
+    <row r="127" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>29</v>
       </c>
@@ -10646,7 +10898,7 @@
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
     </row>
-    <row r="128" spans="2:36" s="7" customFormat="1">
+    <row r="128" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>34</v>
       </c>
@@ -10711,7 +10963,7 @@
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
     </row>
-    <row r="129" spans="2:36" s="7" customFormat="1">
+    <row r="129" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>39</v>
       </c>
@@ -10738,7 +10990,7 @@
       </c>
       <c r="J129" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K129" s="1">
         <v>2389188</v>
@@ -10776,7 +11028,7 @@
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
     </row>
-    <row r="130" spans="2:36">
+    <row r="130" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>119</v>
       </c>
@@ -10803,7 +11055,7 @@
       </c>
       <c r="J130" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130" s="1">
         <v>2389196</v>
@@ -10841,7 +11093,7 @@
       <c r="AI130" s="3"/>
       <c r="AJ130" s="3"/>
     </row>
-    <row r="131" spans="2:36">
+    <row r="131" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>128</v>
       </c>
@@ -10868,7 +11120,7 @@
       </c>
       <c r="J131" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K131" s="1">
         <v>2389210</v>
@@ -10880,7 +11132,9 @@
         <f t="shared" si="5"/>
         <v>43574</v>
       </c>
-      <c r="N131" s="1"/>
+      <c r="N131" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O131" s="1"/>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
@@ -10904,7 +11158,7 @@
       <c r="AI131" s="3"/>
       <c r="AJ131" s="3"/>
     </row>
-    <row r="132" spans="2:36">
+    <row r="132" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>120</v>
       </c>
@@ -10943,7 +11197,9 @@
         <f t="shared" si="5"/>
         <v>43574</v>
       </c>
-      <c r="N132" s="1"/>
+      <c r="N132" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O132" s="1"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
@@ -10967,7 +11223,7 @@
       <c r="AI132" s="3"/>
       <c r="AJ132" s="3"/>
     </row>
-    <row r="133" spans="2:36">
+    <row r="133" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>5152622</v>
       </c>
@@ -10992,7 +11248,7 @@
       </c>
       <c r="J133" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K133" s="1">
         <v>2389199</v>
@@ -11032,7 +11288,7 @@
       <c r="AI133" s="3"/>
       <c r="AJ133" s="3"/>
     </row>
-    <row r="134" spans="2:36">
+    <row r="134" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>5152623</v>
       </c>
@@ -11097,7 +11353,7 @@
       <c r="AI134" s="3"/>
       <c r="AJ134" s="3"/>
     </row>
-    <row r="135" spans="2:36">
+    <row r="135" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>5152614</v>
       </c>
@@ -11164,7 +11420,7 @@
       <c r="AI135" s="3"/>
       <c r="AJ135" s="3"/>
     </row>
-    <row r="136" spans="2:36">
+    <row r="136" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>5152615</v>
       </c>
@@ -11231,7 +11487,7 @@
       <c r="AI136" s="3"/>
       <c r="AJ136" s="3"/>
     </row>
-    <row r="137" spans="2:36">
+    <row r="137" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>112</v>
       </c>
@@ -11296,7 +11552,7 @@
       <c r="AI137" s="3"/>
       <c r="AJ137" s="3"/>
     </row>
-    <row r="138" spans="2:36">
+    <row r="138" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>65</v>
       </c>
@@ -11363,7 +11619,7 @@
       <c r="AI138" s="3"/>
       <c r="AJ138" s="3"/>
     </row>
-    <row r="139" spans="2:36">
+    <row r="139" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>163</v>
       </c>
@@ -11428,7 +11684,7 @@
       <c r="AI139" s="3"/>
       <c r="AJ139" s="3"/>
     </row>
-    <row r="140" spans="2:36">
+    <row r="140" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>271</v>
       </c>
@@ -11493,7 +11749,7 @@
       <c r="AI140" s="3"/>
       <c r="AJ140" s="3"/>
     </row>
-    <row r="141" spans="2:36">
+    <row r="141" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>272</v>
       </c>
@@ -11558,7 +11814,7 @@
       <c r="AI141" s="3"/>
       <c r="AJ141" s="3"/>
     </row>
-    <row r="142" spans="2:36">
+    <row r="142" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>273</v>
       </c>
@@ -11623,7 +11879,7 @@
       <c r="AI142" s="3"/>
       <c r="AJ142" s="3"/>
     </row>
-    <row r="143" spans="2:36">
+    <row r="143" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>274</v>
       </c>
@@ -11688,7 +11944,7 @@
       <c r="AI143" s="3"/>
       <c r="AJ143" s="3"/>
     </row>
-    <row r="144" spans="2:36">
+    <row r="144" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>275</v>
       </c>
@@ -11753,7 +12009,7 @@
       <c r="AI144" s="3"/>
       <c r="AJ144" s="3"/>
     </row>
-    <row r="145" spans="2:36">
+    <row r="145" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>276</v>
       </c>
@@ -11818,7 +12074,7 @@
       <c r="AI145" s="3"/>
       <c r="AJ145" s="3"/>
     </row>
-    <row r="146" spans="2:36">
+    <row r="146" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
         <v>277</v>
       </c>
@@ -11883,7 +12139,7 @@
       <c r="AI146" s="3"/>
       <c r="AJ146" s="3"/>
     </row>
-    <row r="147" spans="2:36">
+    <row r="147" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
         <v>278</v>
       </c>
@@ -11948,7 +12204,7 @@
       <c r="AI147" s="3"/>
       <c r="AJ147" s="3"/>
     </row>
-    <row r="148" spans="2:36">
+    <row r="148" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
         <v>279</v>
       </c>
@@ -12013,7 +12269,7 @@
       <c r="AI148" s="3"/>
       <c r="AJ148" s="3"/>
     </row>
-    <row r="149" spans="2:36">
+    <row r="149" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
         <v>280</v>
       </c>
@@ -12078,7 +12334,7 @@
       <c r="AI149" s="3"/>
       <c r="AJ149" s="3"/>
     </row>
-    <row r="150" spans="2:36">
+    <row r="150" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
         <v>281</v>
       </c>
@@ -12143,7 +12399,7 @@
       <c r="AI150" s="3"/>
       <c r="AJ150" s="3"/>
     </row>
-    <row r="151" spans="2:36">
+    <row r="151" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>282</v>
       </c>
@@ -12208,7 +12464,7 @@
       <c r="AI151" s="3"/>
       <c r="AJ151" s="3"/>
     </row>
-    <row r="152" spans="2:36">
+    <row r="152" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
         <v>283</v>
       </c>
@@ -12233,7 +12489,7 @@
       </c>
       <c r="J152" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K152" s="1">
         <v>2389200</v>
@@ -12273,7 +12529,7 @@
       <c r="AI152" s="3"/>
       <c r="AJ152" s="3"/>
     </row>
-    <row r="153" spans="2:36" s="7" customFormat="1">
+    <row r="153" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
         <v>284</v>
       </c>
@@ -12338,7 +12594,7 @@
       <c r="AI153" s="1"/>
       <c r="AJ153" s="1"/>
     </row>
-    <row r="154" spans="2:36" s="7" customFormat="1">
+    <row r="154" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
         <v>285</v>
       </c>
@@ -12403,7 +12659,7 @@
       <c r="AI154" s="1"/>
       <c r="AJ154" s="1"/>
     </row>
-    <row r="155" spans="2:36" s="7" customFormat="1">
+    <row r="155" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
         <v>286</v>
       </c>
@@ -12468,7 +12724,7 @@
       <c r="AI155" s="1"/>
       <c r="AJ155" s="1"/>
     </row>
-    <row r="156" spans="2:36" s="7" customFormat="1">
+    <row r="156" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
         <v>287</v>
       </c>
@@ -12533,7 +12789,7 @@
       <c r="AI156" s="1"/>
       <c r="AJ156" s="1"/>
     </row>
-    <row r="157" spans="2:36" s="7" customFormat="1">
+    <row r="157" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
         <v>288</v>
       </c>
@@ -12598,7 +12854,7 @@
       <c r="AI157" s="1"/>
       <c r="AJ157" s="1"/>
     </row>
-    <row r="158" spans="2:36" s="7" customFormat="1">
+    <row r="158" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>289</v>
       </c>
@@ -12661,7 +12917,7 @@
       <c r="AI158" s="1"/>
       <c r="AJ158" s="1"/>
     </row>
-    <row r="159" spans="2:36" s="7" customFormat="1">
+    <row r="159" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
         <v>344</v>
       </c>
@@ -12698,7 +12954,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N159" s="1"/>
+      <c r="N159" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
@@ -12722,7 +12980,7 @@
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
     </row>
-    <row r="160" spans="2:36" s="7" customFormat="1">
+    <row r="160" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
         <v>345</v>
       </c>
@@ -12757,7 +13015,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N160" s="1"/>
+      <c r="N160" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
@@ -12781,7 +13041,7 @@
       <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
     </row>
-    <row r="161" spans="2:36" s="7" customFormat="1">
+    <row r="161" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
         <v>346</v>
       </c>
@@ -12816,7 +13076,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N161" s="1"/>
+      <c r="N161" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
@@ -12840,7 +13102,7 @@
       <c r="AI161" s="1"/>
       <c r="AJ161" s="1"/>
     </row>
-    <row r="162" spans="2:36" s="7" customFormat="1">
+    <row r="162" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
         <v>347</v>
       </c>
@@ -12863,7 +13125,7 @@
       </c>
       <c r="J162" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K162" s="1">
         <v>2389203</v>
@@ -12875,7 +13137,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N162" s="1"/>
+      <c r="N162" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
@@ -12899,7 +13163,7 @@
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
     </row>
-    <row r="163" spans="2:36" s="7" customFormat="1">
+    <row r="163" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
         <v>348</v>
       </c>
@@ -12934,7 +13198,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N163" s="1"/>
+      <c r="N163" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
@@ -12958,7 +13224,7 @@
       <c r="AI163" s="1"/>
       <c r="AJ163" s="1"/>
     </row>
-    <row r="164" spans="2:36" s="7" customFormat="1">
+    <row r="164" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>349</v>
       </c>
@@ -12979,7 +13245,7 @@
       </c>
       <c r="J164" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K164" s="1">
         <v>2389203</v>
@@ -12991,7 +13257,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N164" s="1"/>
+      <c r="N164" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
@@ -13015,7 +13283,7 @@
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
     </row>
-    <row r="165" spans="2:36" s="7" customFormat="1">
+    <row r="165" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>350</v>
       </c>
@@ -13050,7 +13318,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N165" s="1"/>
+      <c r="N165" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
@@ -13074,7 +13344,7 @@
       <c r="AI165" s="1"/>
       <c r="AJ165" s="1"/>
     </row>
-    <row r="166" spans="2:36" s="7" customFormat="1">
+    <row r="166" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
         <v>351</v>
       </c>
@@ -13109,7 +13379,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N166" s="1"/>
+      <c r="N166" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
@@ -13133,7 +13405,7 @@
       <c r="AI166" s="1"/>
       <c r="AJ166" s="1"/>
     </row>
-    <row r="167" spans="2:36" s="7" customFormat="1">
+    <row r="167" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
         <v>352</v>
       </c>
@@ -13168,7 +13440,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N167" s="1"/>
+      <c r="N167" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
@@ -13192,7 +13466,7 @@
       <c r="AI167" s="1"/>
       <c r="AJ167" s="1"/>
     </row>
-    <row r="168" spans="2:36" s="7" customFormat="1">
+    <row r="168" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
         <v>353</v>
       </c>
@@ -13227,7 +13501,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N168" s="1"/>
+      <c r="N168" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -13251,7 +13527,7 @@
       <c r="AI168" s="1"/>
       <c r="AJ168" s="1"/>
     </row>
-    <row r="169" spans="2:36" s="7" customFormat="1">
+    <row r="169" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
         <v>354</v>
       </c>
@@ -13286,7 +13562,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N169" s="1"/>
+      <c r="N169" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
@@ -13310,7 +13588,7 @@
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
     </row>
-    <row r="170" spans="2:36" s="7" customFormat="1">
+    <row r="170" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
         <v>355</v>
       </c>
@@ -13331,7 +13609,7 @@
       </c>
       <c r="J170" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K170" s="1">
         <v>2389205</v>
@@ -13343,7 +13621,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N170" s="1"/>
+      <c r="N170" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
@@ -13367,7 +13647,7 @@
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
     </row>
-    <row r="171" spans="2:36" s="7" customFormat="1">
+    <row r="171" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
         <v>356</v>
       </c>
@@ -13400,7 +13680,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N171" s="1"/>
+      <c r="N171" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
@@ -13424,7 +13706,7 @@
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
     </row>
-    <row r="172" spans="2:36" s="7" customFormat="1">
+    <row r="172" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>357</v>
       </c>
@@ -13457,7 +13739,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N172" s="1"/>
+      <c r="N172" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
@@ -13481,7 +13765,7 @@
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
     </row>
-    <row r="173" spans="2:36" s="7" customFormat="1">
+    <row r="173" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
         <v>358</v>
       </c>
@@ -13514,7 +13798,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N173" s="1"/>
+      <c r="N173" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
@@ -13538,7 +13824,7 @@
       <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
     </row>
-    <row r="174" spans="2:36" s="7" customFormat="1">
+    <row r="174" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
         <v>359</v>
       </c>
@@ -13571,7 +13857,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N174" s="1"/>
+      <c r="N174" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
@@ -13595,7 +13883,7 @@
       <c r="AI174" s="1"/>
       <c r="AJ174" s="1"/>
     </row>
-    <row r="175" spans="2:36" s="7" customFormat="1">
+    <row r="175" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
         <v>360</v>
       </c>
@@ -13628,7 +13916,9 @@
         <f t="shared" si="13"/>
         <v>43574</v>
       </c>
-      <c r="N175" s="1"/>
+      <c r="N175" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
@@ -13652,7 +13942,7 @@
       <c r="AI175" s="1"/>
       <c r="AJ175" s="1"/>
     </row>
-    <row r="176" spans="2:36">
+    <row r="176" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
         <v>121</v>
       </c>
@@ -13717,7 +14007,7 @@
       <c r="AI176" s="3"/>
       <c r="AJ176" s="3"/>
     </row>
-    <row r="177" spans="2:36">
+    <row r="177" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
         <v>256</v>
       </c>
@@ -13744,7 +14034,7 @@
       </c>
       <c r="J177" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K177" s="1">
         <v>2389220</v>
@@ -13782,7 +14072,7 @@
       <c r="AI177" s="3"/>
       <c r="AJ177" s="3"/>
     </row>
-    <row r="178" spans="2:36">
+    <row r="178" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>257</v>
       </c>
@@ -13849,7 +14139,7 @@
       <c r="AI178" s="3"/>
       <c r="AJ178" s="3"/>
     </row>
-    <row r="179" spans="2:36">
+    <row r="179" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>258</v>
       </c>
@@ -13914,7 +14204,7 @@
       <c r="AI179" s="3"/>
       <c r="AJ179" s="3"/>
     </row>
-    <row r="180" spans="2:36" s="7" customFormat="1">
+    <row r="180" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
         <v>775</v>
       </c>
@@ -13979,7 +14269,7 @@
       <c r="AI180" s="1"/>
       <c r="AJ180" s="1"/>
     </row>
-    <row r="181" spans="2:36">
+    <row r="181" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
         <v>151</v>
       </c>
@@ -14006,7 +14296,7 @@
       </c>
       <c r="J181" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K181" s="1">
         <v>2389275</v>
@@ -14018,7 +14308,9 @@
         <f t="shared" si="13"/>
         <v>43578</v>
       </c>
-      <c r="N181" s="1"/>
+      <c r="N181" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O181" s="1"/>
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
@@ -14042,7 +14334,7 @@
       <c r="AI181" s="3"/>
       <c r="AJ181" s="3"/>
     </row>
-    <row r="182" spans="2:36">
+    <row r="182" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
         <v>152</v>
       </c>
@@ -14109,7 +14401,7 @@
       <c r="AI182" s="3"/>
       <c r="AJ182" s="3"/>
     </row>
-    <row r="183" spans="2:36">
+    <row r="183" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>5152630</v>
       </c>
@@ -14176,7 +14468,7 @@
       <c r="AI183" s="3"/>
       <c r="AJ183" s="3"/>
     </row>
-    <row r="184" spans="2:36">
+    <row r="184" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>5152631</v>
       </c>
@@ -14215,7 +14507,9 @@
         <f t="shared" si="2"/>
         <v>43578</v>
       </c>
-      <c r="N184" s="1"/>
+      <c r="N184" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
@@ -14239,7 +14533,7 @@
       <c r="AI184" s="3"/>
       <c r="AJ184" s="3"/>
     </row>
-    <row r="185" spans="2:36">
+    <row r="185" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>5152624</v>
       </c>
@@ -14306,7 +14600,7 @@
       <c r="AI185" s="3"/>
       <c r="AJ185" s="3"/>
     </row>
-    <row r="186" spans="2:36">
+    <row r="186" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>5152625</v>
       </c>
@@ -14373,7 +14667,7 @@
       <c r="AI186" s="3"/>
       <c r="AJ186" s="3"/>
     </row>
-    <row r="187" spans="2:36">
+    <row r="187" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>5152626</v>
       </c>
@@ -14440,7 +14734,7 @@
       <c r="AI187" s="3"/>
       <c r="AJ187" s="3"/>
     </row>
-    <row r="188" spans="2:36">
+    <row r="188" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>5152627</v>
       </c>
@@ -14507,7 +14801,7 @@
       <c r="AI188" s="3"/>
       <c r="AJ188" s="3"/>
     </row>
-    <row r="189" spans="2:36">
+    <row r="189" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>5152628</v>
       </c>
@@ -14574,7 +14868,7 @@
       <c r="AI189" s="3"/>
       <c r="AJ189" s="3"/>
     </row>
-    <row r="190" spans="2:36">
+    <row r="190" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>5152629</v>
       </c>
@@ -14641,7 +14935,7 @@
       <c r="AI190" s="3"/>
       <c r="AJ190" s="3"/>
     </row>
-    <row r="191" spans="2:36">
+    <row r="191" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
         <v>113</v>
       </c>
@@ -14702,7 +14996,7 @@
       <c r="AI191" s="3"/>
       <c r="AJ191" s="3"/>
     </row>
-    <row r="192" spans="2:36">
+    <row r="192" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
         <v>122</v>
       </c>
@@ -14767,7 +15061,7 @@
       <c r="AI192" s="3"/>
       <c r="AJ192" s="3"/>
     </row>
-    <row r="193" spans="2:36">
+    <row r="193" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>142</v>
       </c>
@@ -14832,7 +15126,7 @@
       <c r="AI193" s="3"/>
       <c r="AJ193" s="3"/>
     </row>
-    <row r="194" spans="2:36">
+    <row r="194" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
         <v>143</v>
       </c>
@@ -14899,7 +15193,7 @@
       <c r="AI194" s="3"/>
       <c r="AJ194" s="3"/>
     </row>
-    <row r="195" spans="2:36" s="7" customFormat="1">
+    <row r="195" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
         <v>586</v>
       </c>
@@ -14965,7 +15259,7 @@
       <c r="AI195" s="1"/>
       <c r="AJ195" s="1"/>
     </row>
-    <row r="196" spans="2:36" s="7" customFormat="1">
+    <row r="196" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
         <v>587</v>
       </c>
@@ -15031,7 +15325,7 @@
       <c r="AI196" s="1"/>
       <c r="AJ196" s="1"/>
     </row>
-    <row r="197" spans="2:36" s="7" customFormat="1">
+    <row r="197" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>5152632</v>
       </c>
@@ -15058,7 +15352,7 @@
       </c>
       <c r="J197" s="1">
         <f t="shared" ref="J197:J244" ca="1" si="16">DATEDIF(I197,NOW(),"Y")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K197" s="1">
         <v>2389318</v>
@@ -15097,7 +15391,7 @@
       <c r="AI197" s="1"/>
       <c r="AJ197" s="1"/>
     </row>
-    <row r="198" spans="2:36" s="7" customFormat="1">
+    <row r="198" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
         <v>588</v>
       </c>
@@ -15163,7 +15457,7 @@
       <c r="AI198" s="1"/>
       <c r="AJ198" s="1"/>
     </row>
-    <row r="199" spans="2:36" s="7" customFormat="1">
+    <row r="199" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>5152633</v>
       </c>
@@ -15229,7 +15523,7 @@
       <c r="AI199" s="1"/>
       <c r="AJ199" s="1"/>
     </row>
-    <row r="200" spans="2:36" s="7" customFormat="1">
+    <row r="200" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>5152634</v>
       </c>
@@ -15295,7 +15589,7 @@
       <c r="AI200" s="1"/>
       <c r="AJ200" s="1"/>
     </row>
-    <row r="201" spans="2:36" s="7" customFormat="1">
+    <row r="201" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>5152635</v>
       </c>
@@ -15361,7 +15655,7 @@
       <c r="AI201" s="1"/>
       <c r="AJ201" s="1"/>
     </row>
-    <row r="202" spans="2:36" s="7" customFormat="1">
+    <row r="202" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>5152636</v>
       </c>
@@ -15427,7 +15721,7 @@
       <c r="AI202" s="1"/>
       <c r="AJ202" s="1"/>
     </row>
-    <row r="203" spans="2:36" s="7" customFormat="1">
+    <row r="203" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>5152637</v>
       </c>
@@ -15493,7 +15787,7 @@
       <c r="AI203" s="1"/>
       <c r="AJ203" s="1"/>
     </row>
-    <row r="204" spans="2:36" s="7" customFormat="1">
+    <row r="204" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>5152638</v>
       </c>
@@ -15559,7 +15853,7 @@
       <c r="AI204" s="1"/>
       <c r="AJ204" s="1"/>
     </row>
-    <row r="205" spans="2:36" s="7" customFormat="1">
+    <row r="205" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>5152639</v>
       </c>
@@ -15625,7 +15919,7 @@
       <c r="AI205" s="1"/>
       <c r="AJ205" s="1"/>
     </row>
-    <row r="206" spans="2:36" s="7" customFormat="1">
+    <row r="206" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>5152640</v>
       </c>
@@ -15691,7 +15985,7 @@
       <c r="AI206" s="1"/>
       <c r="AJ206" s="1"/>
     </row>
-    <row r="207" spans="2:36" s="7" customFormat="1">
+    <row r="207" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>5152641</v>
       </c>
@@ -15757,7 +16051,7 @@
       <c r="AI207" s="1"/>
       <c r="AJ207" s="1"/>
     </row>
-    <row r="208" spans="2:36" s="7" customFormat="1">
+    <row r="208" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
         <v>589</v>
       </c>
@@ -15823,7 +16117,7 @@
       <c r="AI208" s="1"/>
       <c r="AJ208" s="1"/>
     </row>
-    <row r="209" spans="2:36" s="7" customFormat="1">
+    <row r="209" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>5152642</v>
       </c>
@@ -15889,7 +16183,7 @@
       <c r="AI209" s="1"/>
       <c r="AJ209" s="1"/>
     </row>
-    <row r="210" spans="2:36" s="7" customFormat="1">
+    <row r="210" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>5152643</v>
       </c>
@@ -15955,7 +16249,7 @@
       <c r="AI210" s="1"/>
       <c r="AJ210" s="1"/>
     </row>
-    <row r="211" spans="2:36" s="7" customFormat="1">
+    <row r="211" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>5152644</v>
       </c>
@@ -16021,7 +16315,7 @@
       <c r="AI211" s="1"/>
       <c r="AJ211" s="1"/>
     </row>
-    <row r="212" spans="2:36" s="7" customFormat="1">
+    <row r="212" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>5152645</v>
       </c>
@@ -16087,7 +16381,7 @@
       <c r="AI212" s="1"/>
       <c r="AJ212" s="1"/>
     </row>
-    <row r="213" spans="2:36" s="7" customFormat="1">
+    <row r="213" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>5152646</v>
       </c>
@@ -16153,7 +16447,7 @@
       <c r="AI213" s="1"/>
       <c r="AJ213" s="1"/>
     </row>
-    <row r="214" spans="2:36" s="7" customFormat="1">
+    <row r="214" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>5152647</v>
       </c>
@@ -16219,7 +16513,7 @@
       <c r="AI214" s="1"/>
       <c r="AJ214" s="1"/>
     </row>
-    <row r="215" spans="2:36" s="7" customFormat="1">
+    <row r="215" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>5152648</v>
       </c>
@@ -16285,7 +16579,7 @@
       <c r="AI215" s="1"/>
       <c r="AJ215" s="1"/>
     </row>
-    <row r="216" spans="2:36" s="7" customFormat="1">
+    <row r="216" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>5152649</v>
       </c>
@@ -16351,7 +16645,7 @@
       <c r="AI216" s="1"/>
       <c r="AJ216" s="1"/>
     </row>
-    <row r="217" spans="2:36" s="7" customFormat="1">
+    <row r="217" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>5152650</v>
       </c>
@@ -16417,7 +16711,7 @@
       <c r="AI217" s="1"/>
       <c r="AJ217" s="1"/>
     </row>
-    <row r="218" spans="2:36" s="7" customFormat="1">
+    <row r="218" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>5152651</v>
       </c>
@@ -16483,7 +16777,7 @@
       <c r="AI218" s="1"/>
       <c r="AJ218" s="1"/>
     </row>
-    <row r="219" spans="2:36" s="7" customFormat="1">
+    <row r="219" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>5152652</v>
       </c>
@@ -16549,7 +16843,7 @@
       <c r="AI219" s="1"/>
       <c r="AJ219" s="1"/>
     </row>
-    <row r="220" spans="2:36" s="7" customFormat="1">
+    <row r="220" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>5152653</v>
       </c>
@@ -16615,7 +16909,7 @@
       <c r="AI220" s="1"/>
       <c r="AJ220" s="1"/>
     </row>
-    <row r="221" spans="2:36" s="7" customFormat="1">
+    <row r="221" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>5152654</v>
       </c>
@@ -16681,7 +16975,7 @@
       <c r="AI221" s="1"/>
       <c r="AJ221" s="1"/>
     </row>
-    <row r="222" spans="2:36" s="7" customFormat="1">
+    <row r="222" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>5152655</v>
       </c>
@@ -16747,7 +17041,7 @@
       <c r="AI222" s="1"/>
       <c r="AJ222" s="1"/>
     </row>
-    <row r="223" spans="2:36" s="7" customFormat="1">
+    <row r="223" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>5152656</v>
       </c>
@@ -16774,7 +17068,7 @@
       </c>
       <c r="J223" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K223" s="1">
         <v>2389318</v>
@@ -16813,7 +17107,7 @@
       <c r="AI223" s="1"/>
       <c r="AJ223" s="1"/>
     </row>
-    <row r="224" spans="2:36" s="7" customFormat="1">
+    <row r="224" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>5152657</v>
       </c>
@@ -16879,7 +17173,7 @@
       <c r="AI224" s="1"/>
       <c r="AJ224" s="1"/>
     </row>
-    <row r="225" spans="2:36" s="7" customFormat="1">
+    <row r="225" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>5152658</v>
       </c>
@@ -16943,7 +17237,7 @@
       <c r="AI225" s="1"/>
       <c r="AJ225" s="1"/>
     </row>
-    <row r="226" spans="2:36" s="7" customFormat="1">
+    <row r="226" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>5152659</v>
       </c>
@@ -17009,7 +17303,7 @@
       <c r="AI226" s="1"/>
       <c r="AJ226" s="1"/>
     </row>
-    <row r="227" spans="2:36" s="7" customFormat="1">
+    <row r="227" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>5152660</v>
       </c>
@@ -17075,7 +17369,7 @@
       <c r="AI227" s="1"/>
       <c r="AJ227" s="1"/>
     </row>
-    <row r="228" spans="2:36" s="7" customFormat="1">
+    <row r="228" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>5152661</v>
       </c>
@@ -17141,7 +17435,7 @@
       <c r="AI228" s="1"/>
       <c r="AJ228" s="1"/>
     </row>
-    <row r="229" spans="2:36" s="7" customFormat="1">
+    <row r="229" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>5152662</v>
       </c>
@@ -17207,7 +17501,7 @@
       <c r="AI229" s="1"/>
       <c r="AJ229" s="1"/>
     </row>
-    <row r="230" spans="2:36" s="7" customFormat="1">
+    <row r="230" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>5152663</v>
       </c>
@@ -17273,7 +17567,7 @@
       <c r="AI230" s="1"/>
       <c r="AJ230" s="1"/>
     </row>
-    <row r="231" spans="2:36" s="7" customFormat="1">
+    <row r="231" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>5152664</v>
       </c>
@@ -17339,7 +17633,7 @@
       <c r="AI231" s="1"/>
       <c r="AJ231" s="1"/>
     </row>
-    <row r="232" spans="2:36" s="7" customFormat="1">
+    <row r="232" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>5152665</v>
       </c>
@@ -17366,7 +17660,7 @@
       </c>
       <c r="J232" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K232" s="1">
         <v>2389318</v>
@@ -17405,7 +17699,7 @@
       <c r="AI232" s="1"/>
       <c r="AJ232" s="1"/>
     </row>
-    <row r="233" spans="2:36" s="7" customFormat="1">
+    <row r="233" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>5152666</v>
       </c>
@@ -17471,7 +17765,7 @@
       <c r="AI233" s="1"/>
       <c r="AJ233" s="1"/>
     </row>
-    <row r="234" spans="2:36" s="7" customFormat="1">
+    <row r="234" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
         <v>734</v>
       </c>
@@ -17537,7 +17831,7 @@
       <c r="AI234" s="1"/>
       <c r="AJ234" s="1"/>
     </row>
-    <row r="235" spans="2:36" s="7" customFormat="1">
+    <row r="235" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>742</v>
       </c>
@@ -17597,7 +17891,7 @@
       <c r="AI235" s="1"/>
       <c r="AJ235" s="1"/>
     </row>
-    <row r="236" spans="2:36" s="7" customFormat="1">
+    <row r="236" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>5152669</v>
       </c>
@@ -17624,7 +17918,7 @@
       </c>
       <c r="J236" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K236" s="1">
         <v>2389331</v>
@@ -17663,7 +17957,7 @@
       <c r="AI236" s="1"/>
       <c r="AJ236" s="1"/>
     </row>
-    <row r="237" spans="2:36" s="7" customFormat="1">
+    <row r="237" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
         <v>745</v>
       </c>
@@ -17729,7 +18023,7 @@
       <c r="AI237" s="1"/>
       <c r="AJ237" s="1"/>
     </row>
-    <row r="238" spans="2:36" s="7" customFormat="1">
+    <row r="238" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
         <v>746</v>
       </c>
@@ -17795,7 +18089,7 @@
       <c r="AI238" s="1"/>
       <c r="AJ238" s="1"/>
     </row>
-    <row r="239" spans="2:36" s="7" customFormat="1">
+    <row r="239" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
         <v>747</v>
       </c>
@@ -17861,7 +18155,7 @@
       <c r="AI239" s="1"/>
       <c r="AJ239" s="1"/>
     </row>
-    <row r="240" spans="2:36" s="7" customFormat="1">
+    <row r="240" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
         <v>757</v>
       </c>
@@ -17899,7 +18193,9 @@
       <c r="M240" s="4">
         <v>43581</v>
       </c>
-      <c r="N240" s="1"/>
+      <c r="N240" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
@@ -17923,7 +18219,7 @@
       <c r="AI240" s="1"/>
       <c r="AJ240" s="1"/>
     </row>
-    <row r="241" spans="2:36" s="7" customFormat="1">
+    <row r="241" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
         <v>758</v>
       </c>
@@ -17987,7 +18283,7 @@
       <c r="AI241" s="1"/>
       <c r="AJ241" s="1"/>
     </row>
-    <row r="242" spans="2:36" s="7" customFormat="1">
+    <row r="242" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>758</v>
       </c>
@@ -18051,7 +18347,7 @@
       <c r="AI242" s="1"/>
       <c r="AJ242" s="1"/>
     </row>
-    <row r="243" spans="2:36" s="7" customFormat="1">
+    <row r="243" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
         <v>758</v>
       </c>
@@ -18115,7 +18411,7 @@
       <c r="AI243" s="1"/>
       <c r="AJ243" s="1"/>
     </row>
-    <row r="244" spans="2:36" s="7" customFormat="1">
+    <row r="244" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
         <v>770</v>
       </c>
@@ -18181,7 +18477,7 @@
       <c r="AI244" s="1"/>
       <c r="AJ244" s="1"/>
     </row>
-    <row r="245" spans="2:36" s="7" customFormat="1">
+    <row r="245" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -18218,7 +18514,7 @@
       <c r="AI245" s="1"/>
       <c r="AJ245" s="1"/>
     </row>
-    <row r="246" spans="2:36" s="7" customFormat="1">
+    <row r="246" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -18255,7 +18551,7 @@
       <c r="AI246" s="1"/>
       <c r="AJ246" s="1"/>
     </row>
-    <row r="247" spans="2:36" s="7" customFormat="1">
+    <row r="247" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -18292,7 +18588,7 @@
       <c r="AI247" s="1"/>
       <c r="AJ247" s="1"/>
     </row>
-    <row r="248" spans="2:36" s="7" customFormat="1">
+    <row r="248" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -18329,7 +18625,7 @@
       <c r="AI248" s="1"/>
       <c r="AJ248" s="1"/>
     </row>
-    <row r="249" spans="2:36" s="7" customFormat="1">
+    <row r="249" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -18366,7 +18662,7 @@
       <c r="AI249" s="1"/>
       <c r="AJ249" s="1"/>
     </row>
-    <row r="250" spans="2:36" s="7" customFormat="1">
+    <row r="250" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -18403,7 +18699,7 @@
       <c r="AI250" s="1"/>
       <c r="AJ250" s="1"/>
     </row>
-    <row r="251" spans="2:36" s="7" customFormat="1">
+    <row r="251" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -18440,7 +18736,7 @@
       <c r="AI251" s="1"/>
       <c r="AJ251" s="1"/>
     </row>
-    <row r="252" spans="2:36" s="7" customFormat="1">
+    <row r="252" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -18477,7 +18773,7 @@
       <c r="AI252" s="1"/>
       <c r="AJ252" s="1"/>
     </row>
-    <row r="253" spans="2:36" s="7" customFormat="1">
+    <row r="253" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -18514,7 +18810,7 @@
       <c r="AI253" s="1"/>
       <c r="AJ253" s="1"/>
     </row>
-    <row r="254" spans="2:36" s="7" customFormat="1">
+    <row r="254" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -18551,7 +18847,7 @@
       <c r="AI254" s="1"/>
       <c r="AJ254" s="1"/>
     </row>
-    <row r="255" spans="2:36" s="7" customFormat="1">
+    <row r="255" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -18588,7 +18884,7 @@
       <c r="AI255" s="1"/>
       <c r="AJ255" s="1"/>
     </row>
-    <row r="256" spans="2:36" s="7" customFormat="1">
+    <row r="256" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -18625,7 +18921,7 @@
       <c r="AI256" s="1"/>
       <c r="AJ256" s="1"/>
     </row>
-    <row r="257" spans="2:36" s="7" customFormat="1">
+    <row r="257" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -18662,7 +18958,7 @@
       <c r="AI257" s="1"/>
       <c r="AJ257" s="1"/>
     </row>
-    <row r="258" spans="2:36" s="7" customFormat="1">
+    <row r="258" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -18699,7 +18995,7 @@
       <c r="AI258" s="1"/>
       <c r="AJ258" s="1"/>
     </row>
-    <row r="259" spans="2:36" s="7" customFormat="1">
+    <row r="259" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -18736,7 +19032,7 @@
       <c r="AI259" s="1"/>
       <c r="AJ259" s="1"/>
     </row>
-    <row r="260" spans="2:36" s="7" customFormat="1">
+    <row r="260" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -18773,7 +19069,7 @@
       <c r="AI260" s="1"/>
       <c r="AJ260" s="1"/>
     </row>
-    <row r="261" spans="2:36" s="7" customFormat="1">
+    <row r="261" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -18810,7 +19106,7 @@
       <c r="AI261" s="1"/>
       <c r="AJ261" s="1"/>
     </row>
-    <row r="262" spans="2:36" s="7" customFormat="1">
+    <row r="262" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -18847,7 +19143,7 @@
       <c r="AI262" s="1"/>
       <c r="AJ262" s="1"/>
     </row>
-    <row r="263" spans="2:36" s="7" customFormat="1">
+    <row r="263" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -18884,7 +19180,7 @@
       <c r="AI263" s="1"/>
       <c r="AJ263" s="1"/>
     </row>
-    <row r="264" spans="2:36" s="7" customFormat="1">
+    <row r="264" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -18921,7 +19217,7 @@
       <c r="AI264" s="1"/>
       <c r="AJ264" s="1"/>
     </row>
-    <row r="265" spans="2:36" s="7" customFormat="1">
+    <row r="265" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -18958,7 +19254,7 @@
       <c r="AI265" s="1"/>
       <c r="AJ265" s="1"/>
     </row>
-    <row r="266" spans="2:36" s="7" customFormat="1">
+    <row r="266" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -18995,7 +19291,7 @@
       <c r="AI266" s="1"/>
       <c r="AJ266" s="1"/>
     </row>
-    <row r="267" spans="2:36" s="7" customFormat="1">
+    <row r="267" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -19032,7 +19328,7 @@
       <c r="AI267" s="1"/>
       <c r="AJ267" s="1"/>
     </row>
-    <row r="268" spans="2:36" s="7" customFormat="1">
+    <row r="268" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -19069,7 +19365,7 @@
       <c r="AI268" s="1"/>
       <c r="AJ268" s="1"/>
     </row>
-    <row r="269" spans="2:36" s="7" customFormat="1">
+    <row r="269" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -19106,7 +19402,7 @@
       <c r="AI269" s="1"/>
       <c r="AJ269" s="1"/>
     </row>
-    <row r="270" spans="2:36" s="7" customFormat="1">
+    <row r="270" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -19143,7 +19439,7 @@
       <c r="AI270" s="1"/>
       <c r="AJ270" s="1"/>
     </row>
-    <row r="271" spans="2:36" s="7" customFormat="1">
+    <row r="271" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -19180,7 +19476,7 @@
       <c r="AI271" s="1"/>
       <c r="AJ271" s="1"/>
     </row>
-    <row r="272" spans="2:36" s="7" customFormat="1">
+    <row r="272" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -19217,7 +19513,7 @@
       <c r="AI272" s="1"/>
       <c r="AJ272" s="1"/>
     </row>
-    <row r="273" spans="2:36" s="7" customFormat="1">
+    <row r="273" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -19254,7 +19550,7 @@
       <c r="AI273" s="1"/>
       <c r="AJ273" s="1"/>
     </row>
-    <row r="274" spans="2:36" s="7" customFormat="1">
+    <row r="274" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -19291,7 +19587,7 @@
       <c r="AI274" s="1"/>
       <c r="AJ274" s="1"/>
     </row>
-    <row r="275" spans="2:36" s="7" customFormat="1">
+    <row r="275" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -19328,7 +19624,7 @@
       <c r="AI275" s="1"/>
       <c r="AJ275" s="1"/>
     </row>
-    <row r="276" spans="2:36" s="7" customFormat="1">
+    <row r="276" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -19365,7 +19661,7 @@
       <c r="AI276" s="1"/>
       <c r="AJ276" s="1"/>
     </row>
-    <row r="277" spans="2:36">
+    <row r="277" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -19378,7 +19674,7 @@
       <c r="L277" s="4"/>
       <c r="M277" s="4"/>
     </row>
-    <row r="278" spans="2:36" s="7" customFormat="1">
+    <row r="278" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -19415,7 +19711,7 @@
       <c r="AI278" s="1"/>
       <c r="AJ278" s="1"/>
     </row>
-    <row r="279" spans="2:36" s="7" customFormat="1">
+    <row r="279" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -19452,7 +19748,7 @@
       <c r="AI279" s="1"/>
       <c r="AJ279" s="1"/>
     </row>
-    <row r="280" spans="2:36" s="7" customFormat="1">
+    <row r="280" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -19489,7 +19785,7 @@
       <c r="AI280" s="1"/>
       <c r="AJ280" s="1"/>
     </row>
-    <row r="281" spans="2:36" s="7" customFormat="1">
+    <row r="281" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -19526,7 +19822,7 @@
       <c r="AI281" s="1"/>
       <c r="AJ281" s="1"/>
     </row>
-    <row r="282" spans="2:36" s="7" customFormat="1">
+    <row r="282" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -19563,7 +19859,7 @@
       <c r="AI282" s="1"/>
       <c r="AJ282" s="1"/>
     </row>
-    <row r="283" spans="2:36" s="7" customFormat="1">
+    <row r="283" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -19600,7 +19896,7 @@
       <c r="AI283" s="1"/>
       <c r="AJ283" s="1"/>
     </row>
-    <row r="284" spans="2:36" s="7" customFormat="1">
+    <row r="284" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -19637,7 +19933,7 @@
       <c r="AI284" s="1"/>
       <c r="AJ284" s="1"/>
     </row>
-    <row r="285" spans="2:36" s="7" customFormat="1">
+    <row r="285" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -19674,7 +19970,7 @@
       <c r="AI285" s="1"/>
       <c r="AJ285" s="1"/>
     </row>
-    <row r="286" spans="2:36" s="7" customFormat="1">
+    <row r="286" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -19711,7 +20007,7 @@
       <c r="AI286" s="1"/>
       <c r="AJ286" s="1"/>
     </row>
-    <row r="287" spans="2:36" s="7" customFormat="1">
+    <row r="287" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -19748,7 +20044,7 @@
       <c r="AI287" s="1"/>
       <c r="AJ287" s="1"/>
     </row>
-    <row r="288" spans="2:36" s="7" customFormat="1">
+    <row r="288" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -19785,7 +20081,7 @@
       <c r="AI288" s="1"/>
       <c r="AJ288" s="1"/>
     </row>
-    <row r="289" spans="2:36" s="7" customFormat="1">
+    <row r="289" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -19822,7 +20118,7 @@
       <c r="AI289" s="1"/>
       <c r="AJ289" s="1"/>
     </row>
-    <row r="290" spans="2:36" s="7" customFormat="1">
+    <row r="290" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -19859,7 +20155,7 @@
       <c r="AI290" s="1"/>
       <c r="AJ290" s="1"/>
     </row>
-    <row r="291" spans="2:36" s="7" customFormat="1">
+    <row r="291" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -19896,7 +20192,7 @@
       <c r="AI291" s="1"/>
       <c r="AJ291" s="1"/>
     </row>
-    <row r="292" spans="2:36" s="7" customFormat="1">
+    <row r="292" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -19933,7 +20229,7 @@
       <c r="AI292" s="1"/>
       <c r="AJ292" s="1"/>
     </row>
-    <row r="293" spans="2:36" s="7" customFormat="1">
+    <row r="293" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -19970,7 +20266,7 @@
       <c r="AI293" s="1"/>
       <c r="AJ293" s="1"/>
     </row>
-    <row r="294" spans="2:36" s="7" customFormat="1">
+    <row r="294" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -20007,7 +20303,7 @@
       <c r="AI294" s="1"/>
       <c r="AJ294" s="1"/>
     </row>
-    <row r="295" spans="2:36" s="7" customFormat="1">
+    <row r="295" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -20044,7 +20340,7 @@
       <c r="AI295" s="1"/>
       <c r="AJ295" s="1"/>
     </row>
-    <row r="296" spans="2:36" s="7" customFormat="1">
+    <row r="296" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -20081,7 +20377,7 @@
       <c r="AI296" s="1"/>
       <c r="AJ296" s="1"/>
     </row>
-    <row r="297" spans="2:36" s="7" customFormat="1">
+    <row r="297" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -20118,7 +20414,7 @@
       <c r="AI297" s="1"/>
       <c r="AJ297" s="1"/>
     </row>
-    <row r="298" spans="2:36" s="7" customFormat="1">
+    <row r="298" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -20154,7 +20450,7 @@
       <c r="AI298" s="1"/>
       <c r="AJ298" s="1"/>
     </row>
-    <row r="299" spans="2:36" s="7" customFormat="1">
+    <row r="299" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -20191,7 +20487,7 @@
       <c r="AI299" s="1"/>
       <c r="AJ299" s="1"/>
     </row>
-    <row r="300" spans="2:36" s="7" customFormat="1">
+    <row r="300" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -20228,7 +20524,7 @@
       <c r="AI300" s="1"/>
       <c r="AJ300" s="1"/>
     </row>
-    <row r="301" spans="2:36" s="7" customFormat="1">
+    <row r="301" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -20265,7 +20561,7 @@
       <c r="AI301" s="1"/>
       <c r="AJ301" s="1"/>
     </row>
-    <row r="302" spans="2:36" s="7" customFormat="1">
+    <row r="302" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -20302,7 +20598,7 @@
       <c r="AI302" s="1"/>
       <c r="AJ302" s="1"/>
     </row>
-    <row r="303" spans="2:36" s="7" customFormat="1">
+    <row r="303" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -20339,7 +20635,7 @@
       <c r="AI303" s="1"/>
       <c r="AJ303" s="1"/>
     </row>
-    <row r="304" spans="2:36" s="7" customFormat="1">
+    <row r="304" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -20376,7 +20672,7 @@
       <c r="AI304" s="1"/>
       <c r="AJ304" s="1"/>
     </row>
-    <row r="305" spans="2:36" s="7" customFormat="1">
+    <row r="305" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -20413,7 +20709,7 @@
       <c r="AI305" s="1"/>
       <c r="AJ305" s="1"/>
     </row>
-    <row r="306" spans="2:36" s="7" customFormat="1">
+    <row r="306" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -20450,7 +20746,7 @@
       <c r="AI306" s="1"/>
       <c r="AJ306" s="1"/>
     </row>
-    <row r="307" spans="2:36" s="7" customFormat="1">
+    <row r="307" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -20487,7 +20783,7 @@
       <c r="AI307" s="1"/>
       <c r="AJ307" s="1"/>
     </row>
-    <row r="308" spans="2:36" s="7" customFormat="1">
+    <row r="308" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -20524,7 +20820,7 @@
       <c r="AI308" s="1"/>
       <c r="AJ308" s="1"/>
     </row>
-    <row r="309" spans="2:36" s="7" customFormat="1">
+    <row r="309" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -20561,7 +20857,7 @@
       <c r="AI309" s="1"/>
       <c r="AJ309" s="1"/>
     </row>
-    <row r="310" spans="2:36" s="7" customFormat="1">
+    <row r="310" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -20598,7 +20894,7 @@
       <c r="AI310" s="1"/>
       <c r="AJ310" s="1"/>
     </row>
-    <row r="311" spans="2:36" s="7" customFormat="1">
+    <row r="311" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -20635,7 +20931,7 @@
       <c r="AI311" s="1"/>
       <c r="AJ311" s="1"/>
     </row>
-    <row r="312" spans="2:36" s="7" customFormat="1">
+    <row r="312" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -20672,7 +20968,7 @@
       <c r="AI312" s="1"/>
       <c r="AJ312" s="1"/>
     </row>
-    <row r="313" spans="2:36" s="7" customFormat="1">
+    <row r="313" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -20709,7 +21005,7 @@
       <c r="AI313" s="1"/>
       <c r="AJ313" s="1"/>
     </row>
-    <row r="314" spans="2:36" s="7" customFormat="1">
+    <row r="314" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -20746,7 +21042,7 @@
       <c r="AI314" s="1"/>
       <c r="AJ314" s="1"/>
     </row>
-    <row r="315" spans="2:36" s="7" customFormat="1">
+    <row r="315" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -20783,7 +21079,7 @@
       <c r="AI315" s="1"/>
       <c r="AJ315" s="1"/>
     </row>
-    <row r="316" spans="2:36" s="7" customFormat="1">
+    <row r="316" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -20820,7 +21116,7 @@
       <c r="AI316" s="1"/>
       <c r="AJ316" s="1"/>
     </row>
-    <row r="317" spans="2:36" s="7" customFormat="1">
+    <row r="317" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -20857,7 +21153,7 @@
       <c r="AI317" s="1"/>
       <c r="AJ317" s="1"/>
     </row>
-    <row r="318" spans="2:36" s="7" customFormat="1">
+    <row r="318" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -20894,7 +21190,7 @@
       <c r="AI318" s="1"/>
       <c r="AJ318" s="1"/>
     </row>
-    <row r="319" spans="2:36" s="7" customFormat="1">
+    <row r="319" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -20931,7 +21227,7 @@
       <c r="AI319" s="1"/>
       <c r="AJ319" s="1"/>
     </row>
-    <row r="320" spans="2:36" s="7" customFormat="1">
+    <row r="320" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -20968,7 +21264,7 @@
       <c r="AI320" s="1"/>
       <c r="AJ320" s="1"/>
     </row>
-    <row r="321" spans="2:36" s="7" customFormat="1">
+    <row r="321" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -21005,7 +21301,7 @@
       <c r="AI321" s="1"/>
       <c r="AJ321" s="1"/>
     </row>
-    <row r="322" spans="2:36" s="7" customFormat="1">
+    <row r="322" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -21042,7 +21338,7 @@
       <c r="AI322" s="1"/>
       <c r="AJ322" s="1"/>
     </row>
-    <row r="323" spans="2:36" s="7" customFormat="1">
+    <row r="323" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -21079,7 +21375,7 @@
       <c r="AI323" s="1"/>
       <c r="AJ323" s="1"/>
     </row>
-    <row r="324" spans="2:36" s="7" customFormat="1">
+    <row r="324" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -21116,7 +21412,7 @@
       <c r="AI324" s="1"/>
       <c r="AJ324" s="1"/>
     </row>
-    <row r="325" spans="2:36" s="7" customFormat="1">
+    <row r="325" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -21153,7 +21449,7 @@
       <c r="AI325" s="1"/>
       <c r="AJ325" s="1"/>
     </row>
-    <row r="326" spans="2:36" s="7" customFormat="1">
+    <row r="326" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -21190,7 +21486,7 @@
       <c r="AI326" s="1"/>
       <c r="AJ326" s="1"/>
     </row>
-    <row r="327" spans="2:36" s="7" customFormat="1">
+    <row r="327" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -21227,7 +21523,7 @@
       <c r="AI327" s="1"/>
       <c r="AJ327" s="1"/>
     </row>
-    <row r="328" spans="2:36" s="7" customFormat="1">
+    <row r="328" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -21264,7 +21560,7 @@
       <c r="AI328" s="1"/>
       <c r="AJ328" s="1"/>
     </row>
-    <row r="329" spans="2:36" s="7" customFormat="1">
+    <row r="329" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -21301,7 +21597,7 @@
       <c r="AI329" s="1"/>
       <c r="AJ329" s="1"/>
     </row>
-    <row r="330" spans="2:36" s="7" customFormat="1">
+    <row r="330" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -21338,7 +21634,7 @@
       <c r="AI330" s="1"/>
       <c r="AJ330" s="1"/>
     </row>
-    <row r="331" spans="2:36" s="7" customFormat="1">
+    <row r="331" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -21375,7 +21671,7 @@
       <c r="AI331" s="1"/>
       <c r="AJ331" s="1"/>
     </row>
-    <row r="332" spans="2:36" s="7" customFormat="1">
+    <row r="332" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -21412,7 +21708,7 @@
       <c r="AI332" s="1"/>
       <c r="AJ332" s="1"/>
     </row>
-    <row r="333" spans="2:36" s="7" customFormat="1">
+    <row r="333" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -21449,7 +21745,7 @@
       <c r="AI333" s="1"/>
       <c r="AJ333" s="1"/>
     </row>
-    <row r="334" spans="2:36" s="7" customFormat="1">
+    <row r="334" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -21486,7 +21782,7 @@
       <c r="AI334" s="1"/>
       <c r="AJ334" s="1"/>
     </row>
-    <row r="335" spans="2:36" s="7" customFormat="1">
+    <row r="335" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -21523,7 +21819,7 @@
       <c r="AI335" s="1"/>
       <c r="AJ335" s="1"/>
     </row>
-    <row r="336" spans="2:36" s="7" customFormat="1">
+    <row r="336" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -21560,7 +21856,7 @@
       <c r="AI336" s="1"/>
       <c r="AJ336" s="1"/>
     </row>
-    <row r="337" spans="2:36" s="7" customFormat="1">
+    <row r="337" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -21597,7 +21893,7 @@
       <c r="AI337" s="1"/>
       <c r="AJ337" s="1"/>
     </row>
-    <row r="338" spans="2:36" s="7" customFormat="1">
+    <row r="338" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -21634,7 +21930,7 @@
       <c r="AI338" s="1"/>
       <c r="AJ338" s="1"/>
     </row>
-    <row r="339" spans="2:36" s="7" customFormat="1">
+    <row r="339" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -21671,7 +21967,7 @@
       <c r="AI339" s="1"/>
       <c r="AJ339" s="1"/>
     </row>
-    <row r="340" spans="2:36" s="7" customFormat="1">
+    <row r="340" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -21708,7 +22004,7 @@
       <c r="AI340" s="1"/>
       <c r="AJ340" s="1"/>
     </row>
-    <row r="341" spans="2:36" s="7" customFormat="1">
+    <row r="341" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -21745,7 +22041,7 @@
       <c r="AI341" s="1"/>
       <c r="AJ341" s="1"/>
     </row>
-    <row r="342" spans="2:36" s="7" customFormat="1">
+    <row r="342" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -21782,7 +22078,7 @@
       <c r="AI342" s="1"/>
       <c r="AJ342" s="1"/>
     </row>
-    <row r="343" spans="2:36" s="7" customFormat="1">
+    <row r="343" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -21819,7 +22115,7 @@
       <c r="AI343" s="1"/>
       <c r="AJ343" s="1"/>
     </row>
-    <row r="344" spans="2:36" s="7" customFormat="1">
+    <row r="344" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -21856,7 +22152,7 @@
       <c r="AI344" s="1"/>
       <c r="AJ344" s="1"/>
     </row>
-    <row r="345" spans="2:36" s="7" customFormat="1">
+    <row r="345" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -21893,7 +22189,7 @@
       <c r="AI345" s="1"/>
       <c r="AJ345" s="1"/>
     </row>
-    <row r="346" spans="2:36" s="7" customFormat="1">
+    <row r="346" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -21930,7 +22226,7 @@
       <c r="AI346" s="1"/>
       <c r="AJ346" s="1"/>
     </row>
-    <row r="347" spans="2:36" s="7" customFormat="1">
+    <row r="347" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -21967,7 +22263,7 @@
       <c r="AI347" s="1"/>
       <c r="AJ347" s="1"/>
     </row>
-    <row r="348" spans="2:36" s="7" customFormat="1">
+    <row r="348" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -22004,7 +22300,7 @@
       <c r="AI348" s="1"/>
       <c r="AJ348" s="1"/>
     </row>
-    <row r="349" spans="2:36" s="7" customFormat="1">
+    <row r="349" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -22041,7 +22337,7 @@
       <c r="AI349" s="1"/>
       <c r="AJ349" s="1"/>
     </row>
-    <row r="350" spans="2:36" s="7" customFormat="1">
+    <row r="350" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -22078,7 +22374,7 @@
       <c r="AI350" s="1"/>
       <c r="AJ350" s="1"/>
     </row>
-    <row r="351" spans="2:36" s="7" customFormat="1">
+    <row r="351" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -22115,7 +22411,7 @@
       <c r="AI351" s="1"/>
       <c r="AJ351" s="1"/>
     </row>
-    <row r="352" spans="2:36" s="7" customFormat="1">
+    <row r="352" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -22152,7 +22448,7 @@
       <c r="AI352" s="1"/>
       <c r="AJ352" s="1"/>
     </row>
-    <row r="353" spans="2:36" s="7" customFormat="1">
+    <row r="353" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -22189,7 +22485,7 @@
       <c r="AI353" s="1"/>
       <c r="AJ353" s="1"/>
     </row>
-    <row r="354" spans="2:36" s="7" customFormat="1">
+    <row r="354" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -22226,7 +22522,7 @@
       <c r="AI354" s="1"/>
       <c r="AJ354" s="1"/>
     </row>
-    <row r="355" spans="2:36" s="7" customFormat="1">
+    <row r="355" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -22263,7 +22559,7 @@
       <c r="AI355" s="1"/>
       <c r="AJ355" s="1"/>
     </row>
-    <row r="356" spans="2:36" s="7" customFormat="1">
+    <row r="356" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -22300,7 +22596,7 @@
       <c r="AI356" s="1"/>
       <c r="AJ356" s="1"/>
     </row>
-    <row r="357" spans="2:36" s="7" customFormat="1">
+    <row r="357" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -22337,7 +22633,7 @@
       <c r="AI357" s="1"/>
       <c r="AJ357" s="1"/>
     </row>
-    <row r="358" spans="2:36" s="7" customFormat="1">
+    <row r="358" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -22374,7 +22670,7 @@
       <c r="AI358" s="1"/>
       <c r="AJ358" s="1"/>
     </row>
-    <row r="359" spans="2:36" s="7" customFormat="1">
+    <row r="359" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -22411,7 +22707,7 @@
       <c r="AI359" s="1"/>
       <c r="AJ359" s="1"/>
     </row>
-    <row r="360" spans="2:36" s="7" customFormat="1">
+    <row r="360" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -22448,7 +22744,7 @@
       <c r="AI360" s="1"/>
       <c r="AJ360" s="1"/>
     </row>
-    <row r="361" spans="2:36" s="7" customFormat="1">
+    <row r="361" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -22485,7 +22781,7 @@
       <c r="AI361" s="1"/>
       <c r="AJ361" s="1"/>
     </row>
-    <row r="362" spans="2:36" s="7" customFormat="1">
+    <row r="362" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -22522,7 +22818,7 @@
       <c r="AI362" s="1"/>
       <c r="AJ362" s="1"/>
     </row>
-    <row r="363" spans="2:36" s="7" customFormat="1">
+    <row r="363" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -22559,7 +22855,7 @@
       <c r="AI363" s="1"/>
       <c r="AJ363" s="1"/>
     </row>
-    <row r="364" spans="2:36" s="7" customFormat="1">
+    <row r="364" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -22596,7 +22892,7 @@
       <c r="AI364" s="1"/>
       <c r="AJ364" s="1"/>
     </row>
-    <row r="365" spans="2:36" s="7" customFormat="1">
+    <row r="365" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -22633,7 +22929,7 @@
       <c r="AI365" s="1"/>
       <c r="AJ365" s="1"/>
     </row>
-    <row r="366" spans="2:36" s="7" customFormat="1">
+    <row r="366" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -22670,7 +22966,7 @@
       <c r="AI366" s="1"/>
       <c r="AJ366" s="1"/>
     </row>
-    <row r="367" spans="2:36" s="7" customFormat="1">
+    <row r="367" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -22707,7 +23003,7 @@
       <c r="AI367" s="1"/>
       <c r="AJ367" s="1"/>
     </row>
-    <row r="368" spans="2:36" s="7" customFormat="1">
+    <row r="368" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -22744,7 +23040,7 @@
       <c r="AI368" s="1"/>
       <c r="AJ368" s="1"/>
     </row>
-    <row r="369" spans="2:36" s="7" customFormat="1">
+    <row r="369" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -22781,7 +23077,7 @@
       <c r="AI369" s="1"/>
       <c r="AJ369" s="1"/>
     </row>
-    <row r="370" spans="2:36" s="7" customFormat="1">
+    <row r="370" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -22818,7 +23114,7 @@
       <c r="AI370" s="1"/>
       <c r="AJ370" s="1"/>
     </row>
-    <row r="371" spans="2:36" s="7" customFormat="1">
+    <row r="371" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -22855,7 +23151,7 @@
       <c r="AI371" s="1"/>
       <c r="AJ371" s="1"/>
     </row>
-    <row r="372" spans="2:36" s="7" customFormat="1">
+    <row r="372" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -22892,7 +23188,7 @@
       <c r="AI372" s="1"/>
       <c r="AJ372" s="1"/>
     </row>
-    <row r="373" spans="2:36" s="7" customFormat="1">
+    <row r="373" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -22929,7 +23225,7 @@
       <c r="AI373" s="1"/>
       <c r="AJ373" s="1"/>
     </row>
-    <row r="374" spans="2:36" s="7" customFormat="1">
+    <row r="374" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -22966,7 +23262,7 @@
       <c r="AI374" s="1"/>
       <c r="AJ374" s="1"/>
     </row>
-    <row r="375" spans="2:36" s="7" customFormat="1">
+    <row r="375" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -23003,7 +23299,7 @@
       <c r="AI375" s="1"/>
       <c r="AJ375" s="1"/>
     </row>
-    <row r="376" spans="2:36" s="7" customFormat="1">
+    <row r="376" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -23040,7 +23336,7 @@
       <c r="AI376" s="1"/>
       <c r="AJ376" s="1"/>
     </row>
-    <row r="377" spans="2:36" s="7" customFormat="1">
+    <row r="377" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -23077,7 +23373,7 @@
       <c r="AI377" s="1"/>
       <c r="AJ377" s="1"/>
     </row>
-    <row r="378" spans="2:36" s="7" customFormat="1">
+    <row r="378" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -23114,7 +23410,7 @@
       <c r="AI378" s="1"/>
       <c r="AJ378" s="1"/>
     </row>
-    <row r="379" spans="2:36" s="7" customFormat="1">
+    <row r="379" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -23151,7 +23447,7 @@
       <c r="AI379" s="1"/>
       <c r="AJ379" s="1"/>
     </row>
-    <row r="380" spans="2:36" s="7" customFormat="1">
+    <row r="380" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -23188,7 +23484,7 @@
       <c r="AI380" s="1"/>
       <c r="AJ380" s="1"/>
     </row>
-    <row r="381" spans="2:36" s="7" customFormat="1">
+    <row r="381" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -23225,7 +23521,7 @@
       <c r="AI381" s="1"/>
       <c r="AJ381" s="1"/>
     </row>
-    <row r="382" spans="2:36" s="7" customFormat="1">
+    <row r="382" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -23262,7 +23558,7 @@
       <c r="AI382" s="1"/>
       <c r="AJ382" s="1"/>
     </row>
-    <row r="383" spans="2:36" s="7" customFormat="1">
+    <row r="383" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -23299,7 +23595,7 @@
       <c r="AI383" s="1"/>
       <c r="AJ383" s="1"/>
     </row>
-    <row r="384" spans="2:36" s="7" customFormat="1">
+    <row r="384" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -23336,7 +23632,7 @@
       <c r="AI384" s="1"/>
       <c r="AJ384" s="1"/>
     </row>
-    <row r="385" spans="2:36" s="7" customFormat="1">
+    <row r="385" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -23373,7 +23669,7 @@
       <c r="AI385" s="1"/>
       <c r="AJ385" s="1"/>
     </row>
-    <row r="386" spans="2:36" s="7" customFormat="1">
+    <row r="386" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -23410,7 +23706,7 @@
       <c r="AI386" s="1"/>
       <c r="AJ386" s="1"/>
     </row>
-    <row r="387" spans="2:36" s="7" customFormat="1">
+    <row r="387" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -23447,7 +23743,7 @@
       <c r="AI387" s="1"/>
       <c r="AJ387" s="1"/>
     </row>
-    <row r="388" spans="2:36" s="7" customFormat="1">
+    <row r="388" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -23484,7 +23780,7 @@
       <c r="AI388" s="1"/>
       <c r="AJ388" s="1"/>
     </row>
-    <row r="389" spans="2:36" s="7" customFormat="1">
+    <row r="389" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -23521,7 +23817,7 @@
       <c r="AI389" s="1"/>
       <c r="AJ389" s="1"/>
     </row>
-    <row r="390" spans="2:36" s="7" customFormat="1">
+    <row r="390" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -23558,7 +23854,7 @@
       <c r="AI390" s="1"/>
       <c r="AJ390" s="1"/>
     </row>
-    <row r="391" spans="2:36" s="7" customFormat="1">
+    <row r="391" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -23595,7 +23891,7 @@
       <c r="AI391" s="1"/>
       <c r="AJ391" s="1"/>
     </row>
-    <row r="392" spans="2:36" s="7" customFormat="1">
+    <row r="392" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -23632,7 +23928,7 @@
       <c r="AI392" s="1"/>
       <c r="AJ392" s="1"/>
     </row>
-    <row r="393" spans="2:36" s="7" customFormat="1">
+    <row r="393" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -23669,7 +23965,7 @@
       <c r="AI393" s="1"/>
       <c r="AJ393" s="1"/>
     </row>
-    <row r="394" spans="2:36" s="7" customFormat="1">
+    <row r="394" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -23706,7 +24002,7 @@
       <c r="AI394" s="1"/>
       <c r="AJ394" s="1"/>
     </row>
-    <row r="395" spans="2:36" s="7" customFormat="1">
+    <row r="395" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -23743,7 +24039,7 @@
       <c r="AI395" s="1"/>
       <c r="AJ395" s="1"/>
     </row>
-    <row r="396" spans="2:36" s="7" customFormat="1">
+    <row r="396" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -23780,7 +24076,7 @@
       <c r="AI396" s="1"/>
       <c r="AJ396" s="1"/>
     </row>
-    <row r="397" spans="2:36" s="7" customFormat="1">
+    <row r="397" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -23817,7 +24113,7 @@
       <c r="AI397" s="1"/>
       <c r="AJ397" s="1"/>
     </row>
-    <row r="398" spans="2:36" s="7" customFormat="1">
+    <row r="398" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -23854,7 +24150,7 @@
       <c r="AI398" s="1"/>
       <c r="AJ398" s="1"/>
     </row>
-    <row r="399" spans="2:36" s="7" customFormat="1">
+    <row r="399" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -23891,7 +24187,7 @@
       <c r="AI399" s="1"/>
       <c r="AJ399" s="1"/>
     </row>
-    <row r="400" spans="2:36" s="7" customFormat="1">
+    <row r="400" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -23928,7 +24224,7 @@
       <c r="AI400" s="1"/>
       <c r="AJ400" s="1"/>
     </row>
-    <row r="401" spans="2:36" s="7" customFormat="1">
+    <row r="401" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -23965,7 +24261,7 @@
       <c r="AI401" s="1"/>
       <c r="AJ401" s="1"/>
     </row>
-    <row r="402" spans="2:36" s="7" customFormat="1">
+    <row r="402" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -24002,7 +24298,7 @@
       <c r="AI402" s="1"/>
       <c r="AJ402" s="1"/>
     </row>
-    <row r="403" spans="2:36" s="7" customFormat="1">
+    <row r="403" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -24039,7 +24335,7 @@
       <c r="AI403" s="1"/>
       <c r="AJ403" s="1"/>
     </row>
-    <row r="404" spans="2:36" s="7" customFormat="1">
+    <row r="404" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -24076,7 +24372,7 @@
       <c r="AI404" s="1"/>
       <c r="AJ404" s="1"/>
     </row>
-    <row r="405" spans="2:36" s="7" customFormat="1">
+    <row r="405" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -24113,7 +24409,7 @@
       <c r="AI405" s="1"/>
       <c r="AJ405" s="1"/>
     </row>
-    <row r="406" spans="2:36" s="7" customFormat="1">
+    <row r="406" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -24150,7 +24446,7 @@
       <c r="AI406" s="1"/>
       <c r="AJ406" s="1"/>
     </row>
-    <row r="407" spans="2:36" s="7" customFormat="1">
+    <row r="407" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -24186,7 +24482,7 @@
       <c r="AI407" s="1"/>
       <c r="AJ407" s="1"/>
     </row>
-    <row r="408" spans="2:36" s="7" customFormat="1">
+    <row r="408" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -24223,7 +24519,7 @@
       <c r="AI408" s="1"/>
       <c r="AJ408" s="1"/>
     </row>
-    <row r="409" spans="2:36" s="7" customFormat="1">
+    <row r="409" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -24260,7 +24556,7 @@
       <c r="AI409" s="1"/>
       <c r="AJ409" s="1"/>
     </row>
-    <row r="410" spans="2:36" s="7" customFormat="1">
+    <row r="410" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -24297,7 +24593,7 @@
       <c r="AI410" s="1"/>
       <c r="AJ410" s="1"/>
     </row>
-    <row r="411" spans="2:36" s="7" customFormat="1">
+    <row r="411" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -24334,7 +24630,7 @@
       <c r="AI411" s="1"/>
       <c r="AJ411" s="1"/>
     </row>
-    <row r="412" spans="2:36" s="7" customFormat="1">
+    <row r="412" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -24371,7 +24667,7 @@
       <c r="AI412" s="1"/>
       <c r="AJ412" s="1"/>
     </row>
-    <row r="413" spans="2:36" s="7" customFormat="1">
+    <row r="413" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -24408,7 +24704,7 @@
       <c r="AI413" s="1"/>
       <c r="AJ413" s="1"/>
     </row>
-    <row r="414" spans="2:36" s="7" customFormat="1">
+    <row r="414" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -24445,7 +24741,7 @@
       <c r="AI414" s="1"/>
       <c r="AJ414" s="1"/>
     </row>
-    <row r="415" spans="2:36" s="7" customFormat="1">
+    <row r="415" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -24482,7 +24778,7 @@
       <c r="AI415" s="1"/>
       <c r="AJ415" s="1"/>
     </row>
-    <row r="416" spans="2:36" s="7" customFormat="1">
+    <row r="416" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -24519,7 +24815,7 @@
       <c r="AI416" s="1"/>
       <c r="AJ416" s="1"/>
     </row>
-    <row r="417" spans="2:36" s="7" customFormat="1">
+    <row r="417" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -24556,7 +24852,7 @@
       <c r="AI417" s="1"/>
       <c r="AJ417" s="1"/>
     </row>
-    <row r="418" spans="2:36" s="7" customFormat="1">
+    <row r="418" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -24593,7 +24889,7 @@
       <c r="AI418" s="1"/>
       <c r="AJ418" s="1"/>
     </row>
-    <row r="419" spans="2:36" s="7" customFormat="1">
+    <row r="419" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -24630,7 +24926,7 @@
       <c r="AI419" s="1"/>
       <c r="AJ419" s="1"/>
     </row>
-    <row r="420" spans="2:36" s="7" customFormat="1">
+    <row r="420" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -24667,7 +24963,7 @@
       <c r="AI420" s="1"/>
       <c r="AJ420" s="1"/>
     </row>
-    <row r="421" spans="2:36" s="7" customFormat="1">
+    <row r="421" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -24704,7 +25000,7 @@
       <c r="AI421" s="1"/>
       <c r="AJ421" s="1"/>
     </row>
-    <row r="422" spans="2:36" s="7" customFormat="1">
+    <row r="422" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -24741,7 +25037,7 @@
       <c r="AI422" s="1"/>
       <c r="AJ422" s="1"/>
     </row>
-    <row r="423" spans="2:36" s="7" customFormat="1">
+    <row r="423" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -24778,7 +25074,7 @@
       <c r="AI423" s="1"/>
       <c r="AJ423" s="1"/>
     </row>
-    <row r="424" spans="2:36" s="7" customFormat="1">
+    <row r="424" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -24815,7 +25111,7 @@
       <c r="AI424" s="1"/>
       <c r="AJ424" s="1"/>
     </row>
-    <row r="425" spans="2:36" s="7" customFormat="1">
+    <row r="425" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -24852,7 +25148,7 @@
       <c r="AI425" s="1"/>
       <c r="AJ425" s="1"/>
     </row>
-    <row r="426" spans="2:36" s="7" customFormat="1">
+    <row r="426" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -24889,7 +25185,7 @@
       <c r="AI426" s="1"/>
       <c r="AJ426" s="1"/>
     </row>
-    <row r="427" spans="2:36" s="7" customFormat="1">
+    <row r="427" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -24926,7 +25222,7 @@
       <c r="AI427" s="1"/>
       <c r="AJ427" s="1"/>
     </row>
-    <row r="428" spans="2:36" s="7" customFormat="1">
+    <row r="428" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -24963,7 +25259,7 @@
       <c r="AI428" s="1"/>
       <c r="AJ428" s="1"/>
     </row>
-    <row r="429" spans="2:36" s="7" customFormat="1">
+    <row r="429" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -25000,7 +25296,7 @@
       <c r="AI429" s="1"/>
       <c r="AJ429" s="1"/>
     </row>
-    <row r="430" spans="2:36" s="7" customFormat="1">
+    <row r="430" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -25037,7 +25333,7 @@
       <c r="AI430" s="1"/>
       <c r="AJ430" s="1"/>
     </row>
-    <row r="431" spans="2:36" s="7" customFormat="1">
+    <row r="431" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -25074,7 +25370,7 @@
       <c r="AI431" s="1"/>
       <c r="AJ431" s="1"/>
     </row>
-    <row r="432" spans="2:36" s="7" customFormat="1">
+    <row r="432" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -25111,7 +25407,7 @@
       <c r="AI432" s="1"/>
       <c r="AJ432" s="1"/>
     </row>
-    <row r="433" spans="2:36" s="7" customFormat="1">
+    <row r="433" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -25148,7 +25444,7 @@
       <c r="AI433" s="1"/>
       <c r="AJ433" s="1"/>
     </row>
-    <row r="434" spans="2:36" s="7" customFormat="1">
+    <row r="434" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -25185,7 +25481,7 @@
       <c r="AI434" s="1"/>
       <c r="AJ434" s="1"/>
     </row>
-    <row r="435" spans="2:36" s="7" customFormat="1">
+    <row r="435" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -25222,7 +25518,7 @@
       <c r="AI435" s="1"/>
       <c r="AJ435" s="1"/>
     </row>
-    <row r="436" spans="2:36" s="7" customFormat="1">
+    <row r="436" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -25259,7 +25555,7 @@
       <c r="AI436" s="1"/>
       <c r="AJ436" s="1"/>
     </row>
-    <row r="437" spans="2:36" s="7" customFormat="1">
+    <row r="437" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -25296,7 +25592,7 @@
       <c r="AI437" s="1"/>
       <c r="AJ437" s="1"/>
     </row>
-    <row r="438" spans="2:36" s="7" customFormat="1">
+    <row r="438" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -25333,7 +25629,7 @@
       <c r="AI438" s="1"/>
       <c r="AJ438" s="1"/>
     </row>
-    <row r="439" spans="2:36" s="7" customFormat="1">
+    <row r="439" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -25370,7 +25666,7 @@
       <c r="AI439" s="1"/>
       <c r="AJ439" s="1"/>
     </row>
-    <row r="440" spans="2:36" s="7" customFormat="1">
+    <row r="440" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -25407,7 +25703,7 @@
       <c r="AI440" s="1"/>
       <c r="AJ440" s="1"/>
     </row>
-    <row r="441" spans="2:36" s="7" customFormat="1">
+    <row r="441" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -25444,7 +25740,7 @@
       <c r="AI441" s="1"/>
       <c r="AJ441" s="1"/>
     </row>
-    <row r="442" spans="2:36" s="7" customFormat="1">
+    <row r="442" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -25481,7 +25777,7 @@
       <c r="AI442" s="1"/>
       <c r="AJ442" s="1"/>
     </row>
-    <row r="443" spans="2:36" s="7" customFormat="1">
+    <row r="443" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -25518,7 +25814,7 @@
       <c r="AI443" s="1"/>
       <c r="AJ443" s="1"/>
     </row>
-    <row r="444" spans="2:36" s="7" customFormat="1">
+    <row r="444" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -25555,7 +25851,7 @@
       <c r="AI444" s="1"/>
       <c r="AJ444" s="1"/>
     </row>
-    <row r="445" spans="2:36" s="7" customFormat="1">
+    <row r="445" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -25592,7 +25888,7 @@
       <c r="AI445" s="1"/>
       <c r="AJ445" s="1"/>
     </row>
-    <row r="446" spans="2:36" s="7" customFormat="1">
+    <row r="446" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -25629,7 +25925,7 @@
       <c r="AI446" s="1"/>
       <c r="AJ446" s="1"/>
     </row>
-    <row r="447" spans="2:36" s="7" customFormat="1">
+    <row r="447" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -25666,7 +25962,7 @@
       <c r="AI447" s="1"/>
       <c r="AJ447" s="1"/>
     </row>
-    <row r="448" spans="2:36" s="7" customFormat="1">
+    <row r="448" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -25703,7 +25999,7 @@
       <c r="AI448" s="1"/>
       <c r="AJ448" s="1"/>
     </row>
-    <row r="449" spans="2:36" s="7" customFormat="1">
+    <row r="449" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -25740,7 +26036,7 @@
       <c r="AI449" s="1"/>
       <c r="AJ449" s="1"/>
     </row>
-    <row r="450" spans="2:36" s="7" customFormat="1">
+    <row r="450" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -25777,7 +26073,7 @@
       <c r="AI450" s="1"/>
       <c r="AJ450" s="1"/>
     </row>
-    <row r="451" spans="2:36" s="7" customFormat="1">
+    <row r="451" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -25814,7 +26110,7 @@
       <c r="AI451" s="1"/>
       <c r="AJ451" s="1"/>
     </row>
-    <row r="452" spans="2:36" s="7" customFormat="1">
+    <row r="452" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -25851,7 +26147,7 @@
       <c r="AI452" s="1"/>
       <c r="AJ452" s="1"/>
     </row>
-    <row r="453" spans="2:36" s="7" customFormat="1">
+    <row r="453" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -25888,7 +26184,7 @@
       <c r="AI453" s="1"/>
       <c r="AJ453" s="1"/>
     </row>
-    <row r="454" spans="2:36" s="7" customFormat="1">
+    <row r="454" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -25925,7 +26221,7 @@
       <c r="AI454" s="1"/>
       <c r="AJ454" s="1"/>
     </row>
-    <row r="455" spans="2:36" s="7" customFormat="1">
+    <row r="455" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -25962,7 +26258,7 @@
       <c r="AI455" s="1"/>
       <c r="AJ455" s="1"/>
     </row>
-    <row r="456" spans="2:36" s="7" customFormat="1">
+    <row r="456" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -25999,7 +26295,7 @@
       <c r="AI456" s="1"/>
       <c r="AJ456" s="1"/>
     </row>
-    <row r="457" spans="2:36" s="7" customFormat="1">
+    <row r="457" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -26036,7 +26332,7 @@
       <c r="AI457" s="1"/>
       <c r="AJ457" s="1"/>
     </row>
-    <row r="458" spans="2:36" s="7" customFormat="1">
+    <row r="458" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -26073,7 +26369,7 @@
       <c r="AI458" s="1"/>
       <c r="AJ458" s="1"/>
     </row>
-    <row r="459" spans="2:36" s="7" customFormat="1">
+    <row r="459" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -26110,7 +26406,7 @@
       <c r="AI459" s="1"/>
       <c r="AJ459" s="1"/>
     </row>
-    <row r="460" spans="2:36" s="7" customFormat="1">
+    <row r="460" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -26147,7 +26443,7 @@
       <c r="AI460" s="1"/>
       <c r="AJ460" s="1"/>
     </row>
-    <row r="461" spans="2:36" s="7" customFormat="1">
+    <row r="461" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -26184,7 +26480,7 @@
       <c r="AI461" s="1"/>
       <c r="AJ461" s="1"/>
     </row>
-    <row r="462" spans="2:36" s="7" customFormat="1">
+    <row r="462" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -26221,7 +26517,7 @@
       <c r="AI462" s="1"/>
       <c r="AJ462" s="1"/>
     </row>
-    <row r="463" spans="2:36" s="7" customFormat="1">
+    <row r="463" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -26258,7 +26554,7 @@
       <c r="AI463" s="1"/>
       <c r="AJ463" s="1"/>
     </row>
-    <row r="464" spans="2:36" s="7" customFormat="1">
+    <row r="464" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -26295,7 +26591,7 @@
       <c r="AI464" s="1"/>
       <c r="AJ464" s="1"/>
     </row>
-    <row r="465" spans="2:36" s="7" customFormat="1">
+    <row r="465" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -26332,7 +26628,7 @@
       <c r="AI465" s="1"/>
       <c r="AJ465" s="1"/>
     </row>
-    <row r="466" spans="2:36" s="7" customFormat="1">
+    <row r="466" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -26369,7 +26665,7 @@
       <c r="AI466" s="1"/>
       <c r="AJ466" s="1"/>
     </row>
-    <row r="467" spans="2:36" s="7" customFormat="1">
+    <row r="467" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -26406,7 +26702,7 @@
       <c r="AI467" s="1"/>
       <c r="AJ467" s="1"/>
     </row>
-    <row r="468" spans="2:36" s="7" customFormat="1">
+    <row r="468" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -26443,7 +26739,7 @@
       <c r="AI468" s="1"/>
       <c r="AJ468" s="1"/>
     </row>
-    <row r="469" spans="2:36" s="7" customFormat="1">
+    <row r="469" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -26480,7 +26776,7 @@
       <c r="AI469" s="1"/>
       <c r="AJ469" s="1"/>
     </row>
-    <row r="470" spans="2:36" s="7" customFormat="1">
+    <row r="470" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -26517,7 +26813,7 @@
       <c r="AI470" s="1"/>
       <c r="AJ470" s="1"/>
     </row>
-    <row r="471" spans="2:36" s="7" customFormat="1">
+    <row r="471" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -26554,7 +26850,7 @@
       <c r="AI471" s="1"/>
       <c r="AJ471" s="1"/>
     </row>
-    <row r="472" spans="2:36" s="7" customFormat="1">
+    <row r="472" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -26591,7 +26887,7 @@
       <c r="AI472" s="1"/>
       <c r="AJ472" s="1"/>
     </row>
-    <row r="473" spans="2:36" s="7" customFormat="1">
+    <row r="473" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -26628,7 +26924,7 @@
       <c r="AI473" s="1"/>
       <c r="AJ473" s="1"/>
     </row>
-    <row r="474" spans="2:36" s="7" customFormat="1">
+    <row r="474" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -26665,7 +26961,7 @@
       <c r="AI474" s="1"/>
       <c r="AJ474" s="1"/>
     </row>
-    <row r="475" spans="2:36" s="7" customFormat="1">
+    <row r="475" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -26702,7 +26998,7 @@
       <c r="AI475" s="1"/>
       <c r="AJ475" s="1"/>
     </row>
-    <row r="476" spans="2:36" s="7" customFormat="1">
+    <row r="476" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -26739,7 +27035,7 @@
       <c r="AI476" s="1"/>
       <c r="AJ476" s="1"/>
     </row>
-    <row r="477" spans="2:36" s="7" customFormat="1">
+    <row r="477" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -26776,7 +27072,7 @@
       <c r="AI477" s="1"/>
       <c r="AJ477" s="1"/>
     </row>
-    <row r="478" spans="2:36" s="7" customFormat="1">
+    <row r="478" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -26813,7 +27109,7 @@
       <c r="AI478" s="1"/>
       <c r="AJ478" s="1"/>
     </row>
-    <row r="479" spans="2:36" s="7" customFormat="1">
+    <row r="479" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
@@ -26850,7 +27146,7 @@
       <c r="AI479" s="1"/>
       <c r="AJ479" s="1"/>
     </row>
-    <row r="480" spans="2:36" s="7" customFormat="1">
+    <row r="480" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
@@ -26887,7 +27183,7 @@
       <c r="AI480" s="1"/>
       <c r="AJ480" s="1"/>
     </row>
-    <row r="481" spans="2:36" s="7" customFormat="1">
+    <row r="481" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
@@ -26924,7 +27220,7 @@
       <c r="AI481" s="1"/>
       <c r="AJ481" s="1"/>
     </row>
-    <row r="482" spans="2:36" s="7" customFormat="1">
+    <row r="482" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
@@ -26961,7 +27257,7 @@
       <c r="AI482" s="1"/>
       <c r="AJ482" s="1"/>
     </row>
-    <row r="483" spans="2:36" s="7" customFormat="1">
+    <row r="483" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
@@ -26998,7 +27294,7 @@
       <c r="AI483" s="1"/>
       <c r="AJ483" s="1"/>
     </row>
-    <row r="484" spans="2:36" s="7" customFormat="1">
+    <row r="484" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
@@ -27035,7 +27331,7 @@
       <c r="AI484" s="1"/>
       <c r="AJ484" s="1"/>
     </row>
-    <row r="485" spans="2:36" s="7" customFormat="1">
+    <row r="485" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
@@ -27072,7 +27368,7 @@
       <c r="AI485" s="1"/>
       <c r="AJ485" s="1"/>
     </row>
-    <row r="486" spans="2:36" s="7" customFormat="1">
+    <row r="486" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
@@ -27109,7 +27405,7 @@
       <c r="AI486" s="1"/>
       <c r="AJ486" s="1"/>
     </row>
-    <row r="487" spans="2:36" s="7" customFormat="1">
+    <row r="487" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -27146,7 +27442,7 @@
       <c r="AI487" s="1"/>
       <c r="AJ487" s="1"/>
     </row>
-    <row r="488" spans="2:36" s="7" customFormat="1">
+    <row r="488" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -27183,7 +27479,7 @@
       <c r="AI488" s="1"/>
       <c r="AJ488" s="1"/>
     </row>
-    <row r="489" spans="2:36" s="7" customFormat="1">
+    <row r="489" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -27220,7 +27516,7 @@
       <c r="AI489" s="1"/>
       <c r="AJ489" s="1"/>
     </row>
-    <row r="490" spans="2:36" s="7" customFormat="1">
+    <row r="490" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -27257,7 +27553,7 @@
       <c r="AI490" s="1"/>
       <c r="AJ490" s="1"/>
     </row>
-    <row r="491" spans="2:36" s="7" customFormat="1">
+    <row r="491" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -27294,7 +27590,7 @@
       <c r="AI491" s="1"/>
       <c r="AJ491" s="1"/>
     </row>
-    <row r="492" spans="2:36" s="7" customFormat="1">
+    <row r="492" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -27331,7 +27627,7 @@
       <c r="AI492" s="1"/>
       <c r="AJ492" s="1"/>
     </row>
-    <row r="493" spans="2:36" s="7" customFormat="1">
+    <row r="493" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -27368,7 +27664,7 @@
       <c r="AI493" s="1"/>
       <c r="AJ493" s="1"/>
     </row>
-    <row r="494" spans="2:36" s="7" customFormat="1">
+    <row r="494" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -27405,7 +27701,7 @@
       <c r="AI494" s="1"/>
       <c r="AJ494" s="1"/>
     </row>
-    <row r="495" spans="2:36" s="7" customFormat="1">
+    <row r="495" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -27442,7 +27738,7 @@
       <c r="AI495" s="1"/>
       <c r="AJ495" s="1"/>
     </row>
-    <row r="496" spans="2:36" s="7" customFormat="1">
+    <row r="496" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -27479,7 +27775,7 @@
       <c r="AI496" s="1"/>
       <c r="AJ496" s="1"/>
     </row>
-    <row r="497" spans="2:36" s="7" customFormat="1">
+    <row r="497" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -27516,7 +27812,7 @@
       <c r="AI497" s="1"/>
       <c r="AJ497" s="1"/>
     </row>
-    <row r="498" spans="2:36" s="7" customFormat="1">
+    <row r="498" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -27553,7 +27849,7 @@
       <c r="AI498" s="1"/>
       <c r="AJ498" s="1"/>
     </row>
-    <row r="499" spans="2:36" s="7" customFormat="1">
+    <row r="499" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -27590,7 +27886,7 @@
       <c r="AI499" s="1"/>
       <c r="AJ499" s="1"/>
     </row>
-    <row r="500" spans="2:36" s="7" customFormat="1">
+    <row r="500" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -27627,7 +27923,7 @@
       <c r="AI500" s="1"/>
       <c r="AJ500" s="1"/>
     </row>
-    <row r="501" spans="2:36" s="7" customFormat="1">
+    <row r="501" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -27664,7 +27960,7 @@
       <c r="AI501" s="1"/>
       <c r="AJ501" s="1"/>
     </row>
-    <row r="502" spans="2:36" s="7" customFormat="1">
+    <row r="502" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -27701,7 +27997,7 @@
       <c r="AI502" s="1"/>
       <c r="AJ502" s="1"/>
     </row>
-    <row r="503" spans="2:36" s="7" customFormat="1">
+    <row r="503" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -27738,7 +28034,7 @@
       <c r="AI503" s="1"/>
       <c r="AJ503" s="1"/>
     </row>
-    <row r="504" spans="2:36" s="7" customFormat="1">
+    <row r="504" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -27775,7 +28071,7 @@
       <c r="AI504" s="1"/>
       <c r="AJ504" s="1"/>
     </row>
-    <row r="505" spans="2:36" s="7" customFormat="1">
+    <row r="505" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -27812,7 +28108,7 @@
       <c r="AI505" s="1"/>
       <c r="AJ505" s="1"/>
     </row>
-    <row r="506" spans="2:36" s="7" customFormat="1">
+    <row r="506" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -27849,7 +28145,7 @@
       <c r="AI506" s="1"/>
       <c r="AJ506" s="1"/>
     </row>
-    <row r="507" spans="2:36" s="7" customFormat="1">
+    <row r="507" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -27886,7 +28182,7 @@
       <c r="AI507" s="1"/>
       <c r="AJ507" s="1"/>
     </row>
-    <row r="508" spans="2:36" s="7" customFormat="1">
+    <row r="508" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -27923,7 +28219,7 @@
       <c r="AI508" s="1"/>
       <c r="AJ508" s="1"/>
     </row>
-    <row r="509" spans="2:36" s="7" customFormat="1">
+    <row r="509" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -27960,7 +28256,7 @@
       <c r="AI509" s="1"/>
       <c r="AJ509" s="1"/>
     </row>
-    <row r="510" spans="2:36" s="7" customFormat="1">
+    <row r="510" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -27997,7 +28293,7 @@
       <c r="AI510" s="1"/>
       <c r="AJ510" s="1"/>
     </row>
-    <row r="511" spans="2:36" s="7" customFormat="1">
+    <row r="511" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
@@ -28034,7 +28330,7 @@
       <c r="AI511" s="1"/>
       <c r="AJ511" s="1"/>
     </row>
-    <row r="512" spans="2:36" s="7" customFormat="1">
+    <row r="512" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -28071,7 +28367,7 @@
       <c r="AI512" s="1"/>
       <c r="AJ512" s="1"/>
     </row>
-    <row r="513" spans="2:36" s="7" customFormat="1">
+    <row r="513" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
@@ -28108,7 +28404,7 @@
       <c r="AI513" s="1"/>
       <c r="AJ513" s="1"/>
     </row>
-    <row r="514" spans="2:36" s="7" customFormat="1">
+    <row r="514" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
@@ -28145,7 +28441,7 @@
       <c r="AI514" s="1"/>
       <c r="AJ514" s="1"/>
     </row>
-    <row r="515" spans="2:36" s="7" customFormat="1">
+    <row r="515" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -28182,7 +28478,7 @@
       <c r="AI515" s="1"/>
       <c r="AJ515" s="1"/>
     </row>
-    <row r="516" spans="2:36" s="7" customFormat="1">
+    <row r="516" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
@@ -28219,7 +28515,7 @@
       <c r="AI516" s="1"/>
       <c r="AJ516" s="1"/>
     </row>
-    <row r="517" spans="2:36" s="7" customFormat="1">
+    <row r="517" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
@@ -28256,7 +28552,7 @@
       <c r="AI517" s="1"/>
       <c r="AJ517" s="1"/>
     </row>
-    <row r="518" spans="2:36" s="7" customFormat="1">
+    <row r="518" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -28293,7 +28589,7 @@
       <c r="AI518" s="1"/>
       <c r="AJ518" s="1"/>
     </row>
-    <row r="519" spans="2:36" s="7" customFormat="1">
+    <row r="519" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
@@ -28330,7 +28626,7 @@
       <c r="AI519" s="1"/>
       <c r="AJ519" s="1"/>
     </row>
-    <row r="520" spans="2:36" s="7" customFormat="1">
+    <row r="520" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
@@ -28367,7 +28663,7 @@
       <c r="AI520" s="1"/>
       <c r="AJ520" s="1"/>
     </row>
-    <row r="521" spans="2:36" s="7" customFormat="1">
+    <row r="521" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
@@ -28404,7 +28700,7 @@
       <c r="AI521" s="1"/>
       <c r="AJ521" s="1"/>
     </row>
-    <row r="522" spans="2:36" s="7" customFormat="1">
+    <row r="522" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
@@ -28441,7 +28737,7 @@
       <c r="AI522" s="1"/>
       <c r="AJ522" s="1"/>
     </row>
-    <row r="523" spans="2:36" s="7" customFormat="1">
+    <row r="523" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
@@ -28478,7 +28774,7 @@
       <c r="AI523" s="1"/>
       <c r="AJ523" s="1"/>
     </row>
-    <row r="524" spans="2:36" s="7" customFormat="1">
+    <row r="524" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
@@ -28515,7 +28811,7 @@
       <c r="AI524" s="1"/>
       <c r="AJ524" s="1"/>
     </row>
-    <row r="525" spans="2:36" s="7" customFormat="1">
+    <row r="525" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
@@ -28552,7 +28848,7 @@
       <c r="AI525" s="1"/>
       <c r="AJ525" s="1"/>
     </row>
-    <row r="526" spans="2:36" s="7" customFormat="1">
+    <row r="526" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
@@ -28589,7 +28885,7 @@
       <c r="AI526" s="1"/>
       <c r="AJ526" s="1"/>
     </row>
-    <row r="527" spans="2:36" s="7" customFormat="1">
+    <row r="527" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
@@ -28626,7 +28922,7 @@
       <c r="AI527" s="1"/>
       <c r="AJ527" s="1"/>
     </row>
-    <row r="528" spans="2:36" s="7" customFormat="1">
+    <row r="528" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
@@ -28663,7 +28959,7 @@
       <c r="AI528" s="1"/>
       <c r="AJ528" s="1"/>
     </row>
-    <row r="529" spans="2:36" s="7" customFormat="1">
+    <row r="529" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
@@ -28700,7 +28996,7 @@
       <c r="AI529" s="1"/>
       <c r="AJ529" s="1"/>
     </row>
-    <row r="530" spans="2:36" s="7" customFormat="1">
+    <row r="530" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
@@ -28737,7 +29033,7 @@
       <c r="AI530" s="1"/>
       <c r="AJ530" s="1"/>
     </row>
-    <row r="531" spans="2:36" s="7" customFormat="1">
+    <row r="531" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
@@ -28774,7 +29070,7 @@
       <c r="AI531" s="1"/>
       <c r="AJ531" s="1"/>
     </row>
-    <row r="532" spans="2:36" s="7" customFormat="1">
+    <row r="532" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
@@ -28811,7 +29107,7 @@
       <c r="AI532" s="1"/>
       <c r="AJ532" s="1"/>
     </row>
-    <row r="533" spans="2:36" s="7" customFormat="1">
+    <row r="533" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
@@ -28848,7 +29144,7 @@
       <c r="AI533" s="1"/>
       <c r="AJ533" s="1"/>
     </row>
-    <row r="534" spans="2:36" s="7" customFormat="1">
+    <row r="534" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
@@ -28885,7 +29181,7 @@
       <c r="AI534" s="1"/>
       <c r="AJ534" s="1"/>
     </row>
-    <row r="535" spans="2:36" s="7" customFormat="1">
+    <row r="535" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
@@ -28922,7 +29218,7 @@
       <c r="AI535" s="1"/>
       <c r="AJ535" s="1"/>
     </row>
-    <row r="536" spans="2:36" s="7" customFormat="1">
+    <row r="536" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
@@ -28959,7 +29255,7 @@
       <c r="AI536" s="1"/>
       <c r="AJ536" s="1"/>
     </row>
-    <row r="537" spans="2:36" s="7" customFormat="1">
+    <row r="537" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
@@ -28996,7 +29292,7 @@
       <c r="AI537" s="1"/>
       <c r="AJ537" s="1"/>
     </row>
-    <row r="538" spans="2:36" s="7" customFormat="1">
+    <row r="538" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
@@ -29033,7 +29329,7 @@
       <c r="AI538" s="1"/>
       <c r="AJ538" s="1"/>
     </row>
-    <row r="539" spans="2:36" s="7" customFormat="1">
+    <row r="539" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
@@ -29070,7 +29366,7 @@
       <c r="AI539" s="1"/>
       <c r="AJ539" s="1"/>
     </row>
-    <row r="540" spans="2:36" s="7" customFormat="1">
+    <row r="540" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
@@ -29107,7 +29403,7 @@
       <c r="AI540" s="1"/>
       <c r="AJ540" s="1"/>
     </row>
-    <row r="541" spans="2:36" s="7" customFormat="1">
+    <row r="541" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
@@ -29144,7 +29440,7 @@
       <c r="AI541" s="1"/>
       <c r="AJ541" s="1"/>
     </row>
-    <row r="542" spans="2:36" s="7" customFormat="1">
+    <row r="542" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
@@ -29181,7 +29477,7 @@
       <c r="AI542" s="1"/>
       <c r="AJ542" s="1"/>
     </row>
-    <row r="543" spans="2:36" s="7" customFormat="1">
+    <row r="543" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
@@ -29218,7 +29514,7 @@
       <c r="AI543" s="1"/>
       <c r="AJ543" s="1"/>
     </row>
-    <row r="544" spans="2:36" s="7" customFormat="1">
+    <row r="544" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
@@ -29255,7 +29551,7 @@
       <c r="AI544" s="1"/>
       <c r="AJ544" s="1"/>
     </row>
-    <row r="545" spans="2:36" s="7" customFormat="1">
+    <row r="545" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
@@ -29292,7 +29588,7 @@
       <c r="AI545" s="1"/>
       <c r="AJ545" s="1"/>
     </row>
-    <row r="546" spans="2:36" s="7" customFormat="1">
+    <row r="546" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
@@ -29329,7 +29625,7 @@
       <c r="AI546" s="1"/>
       <c r="AJ546" s="1"/>
     </row>
-    <row r="547" spans="2:36" s="7" customFormat="1">
+    <row r="547" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
@@ -29366,7 +29662,7 @@
       <c r="AI547" s="1"/>
       <c r="AJ547" s="1"/>
     </row>
-    <row r="548" spans="2:36" s="7" customFormat="1">
+    <row r="548" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -29403,7 +29699,7 @@
       <c r="AI548" s="1"/>
       <c r="AJ548" s="1"/>
     </row>
-    <row r="549" spans="2:36" s="7" customFormat="1">
+    <row r="549" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
@@ -29440,7 +29736,7 @@
       <c r="AI549" s="1"/>
       <c r="AJ549" s="1"/>
     </row>
-    <row r="550" spans="2:36" s="7" customFormat="1">
+    <row r="550" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
@@ -29477,7 +29773,7 @@
       <c r="AI550" s="1"/>
       <c r="AJ550" s="1"/>
     </row>
-    <row r="551" spans="2:36" s="7" customFormat="1">
+    <row r="551" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
@@ -29514,7 +29810,7 @@
       <c r="AI551" s="1"/>
       <c r="AJ551" s="1"/>
     </row>
-    <row r="552" spans="2:36" s="7" customFormat="1">
+    <row r="552" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
@@ -29551,7 +29847,7 @@
       <c r="AI552" s="1"/>
       <c r="AJ552" s="1"/>
     </row>
-    <row r="553" spans="2:36" s="7" customFormat="1">
+    <row r="553" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
@@ -29588,7 +29884,7 @@
       <c r="AI553" s="1"/>
       <c r="AJ553" s="1"/>
     </row>
-    <row r="554" spans="2:36" s="7" customFormat="1">
+    <row r="554" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
@@ -29625,7 +29921,7 @@
       <c r="AI554" s="1"/>
       <c r="AJ554" s="1"/>
     </row>
-    <row r="555" spans="2:36" s="7" customFormat="1">
+    <row r="555" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
@@ -29662,7 +29958,7 @@
       <c r="AI555" s="1"/>
       <c r="AJ555" s="1"/>
     </row>
-    <row r="556" spans="2:36" s="7" customFormat="1">
+    <row r="556" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
@@ -29699,7 +29995,7 @@
       <c r="AI556" s="1"/>
       <c r="AJ556" s="1"/>
     </row>
-    <row r="557" spans="2:36" s="7" customFormat="1">
+    <row r="557" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
@@ -29736,7 +30032,7 @@
       <c r="AI557" s="1"/>
       <c r="AJ557" s="1"/>
     </row>
-    <row r="558" spans="2:36" s="7" customFormat="1">
+    <row r="558" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
@@ -29773,7 +30069,7 @@
       <c r="AI558" s="1"/>
       <c r="AJ558" s="1"/>
     </row>
-    <row r="559" spans="2:36" s="7" customFormat="1">
+    <row r="559" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
@@ -29810,7 +30106,7 @@
       <c r="AI559" s="1"/>
       <c r="AJ559" s="1"/>
     </row>
-    <row r="560" spans="2:36" s="7" customFormat="1">
+    <row r="560" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
@@ -29847,7 +30143,7 @@
       <c r="AI560" s="1"/>
       <c r="AJ560" s="1"/>
     </row>
-    <row r="561" spans="2:36" s="7" customFormat="1">
+    <row r="561" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
@@ -29884,7 +30180,7 @@
       <c r="AI561" s="1"/>
       <c r="AJ561" s="1"/>
     </row>
-    <row r="562" spans="2:36" s="7" customFormat="1">
+    <row r="562" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
@@ -29921,7 +30217,7 @@
       <c r="AI562" s="1"/>
       <c r="AJ562" s="1"/>
     </row>
-    <row r="563" spans="2:36" s="7" customFormat="1">
+    <row r="563" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
@@ -29958,7 +30254,7 @@
       <c r="AI563" s="1"/>
       <c r="AJ563" s="1"/>
     </row>
-    <row r="564" spans="2:36" s="7" customFormat="1">
+    <row r="564" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
@@ -29995,7 +30291,7 @@
       <c r="AI564" s="1"/>
       <c r="AJ564" s="1"/>
     </row>
-    <row r="565" spans="2:36" s="7" customFormat="1">
+    <row r="565" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
@@ -30032,7 +30328,7 @@
       <c r="AI565" s="1"/>
       <c r="AJ565" s="1"/>
     </row>
-    <row r="566" spans="2:36" s="7" customFormat="1">
+    <row r="566" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
@@ -30069,7 +30365,7 @@
       <c r="AI566" s="1"/>
       <c r="AJ566" s="1"/>
     </row>
-    <row r="567" spans="2:36" s="7" customFormat="1">
+    <row r="567" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
@@ -30106,7 +30402,7 @@
       <c r="AI567" s="1"/>
       <c r="AJ567" s="1"/>
     </row>
-    <row r="568" spans="2:36" s="7" customFormat="1">
+    <row r="568" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
@@ -30143,7 +30439,7 @@
       <c r="AI568" s="1"/>
       <c r="AJ568" s="1"/>
     </row>
-    <row r="569" spans="2:36" s="7" customFormat="1">
+    <row r="569" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
@@ -30180,7 +30476,7 @@
       <c r="AI569" s="1"/>
       <c r="AJ569" s="1"/>
     </row>
-    <row r="570" spans="2:36" s="7" customFormat="1">
+    <row r="570" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
@@ -30217,7 +30513,7 @@
       <c r="AI570" s="1"/>
       <c r="AJ570" s="1"/>
     </row>
-    <row r="571" spans="2:36" s="7" customFormat="1">
+    <row r="571" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
@@ -30254,7 +30550,7 @@
       <c r="AI571" s="1"/>
       <c r="AJ571" s="1"/>
     </row>
-    <row r="572" spans="2:36" s="7" customFormat="1">
+    <row r="572" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
@@ -30291,7 +30587,7 @@
       <c r="AI572" s="1"/>
       <c r="AJ572" s="1"/>
     </row>
-    <row r="573" spans="2:36" s="7" customFormat="1">
+    <row r="573" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
@@ -30328,7 +30624,7 @@
       <c r="AI573" s="1"/>
       <c r="AJ573" s="1"/>
     </row>
-    <row r="574" spans="2:36" s="7" customFormat="1">
+    <row r="574" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
@@ -30365,7 +30661,7 @@
       <c r="AI574" s="1"/>
       <c r="AJ574" s="1"/>
     </row>
-    <row r="575" spans="2:36" s="7" customFormat="1">
+    <row r="575" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
@@ -30402,7 +30698,7 @@
       <c r="AI575" s="1"/>
       <c r="AJ575" s="1"/>
     </row>
-    <row r="576" spans="2:36" s="7" customFormat="1">
+    <row r="576" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
@@ -30439,7 +30735,7 @@
       <c r="AI576" s="1"/>
       <c r="AJ576" s="1"/>
     </row>
-    <row r="577" spans="2:36" s="7" customFormat="1">
+    <row r="577" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
@@ -30476,7 +30772,7 @@
       <c r="AI577" s="1"/>
       <c r="AJ577" s="1"/>
     </row>
-    <row r="578" spans="2:36" s="7" customFormat="1">
+    <row r="578" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
@@ -30513,7 +30809,7 @@
       <c r="AI578" s="1"/>
       <c r="AJ578" s="1"/>
     </row>
-    <row r="579" spans="2:36" s="7" customFormat="1">
+    <row r="579" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
@@ -30550,7 +30846,7 @@
       <c r="AI579" s="1"/>
       <c r="AJ579" s="1"/>
     </row>
-    <row r="580" spans="2:36" s="7" customFormat="1">
+    <row r="580" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
@@ -30587,7 +30883,7 @@
       <c r="AI580" s="1"/>
       <c r="AJ580" s="1"/>
     </row>
-    <row r="581" spans="2:36" s="7" customFormat="1">
+    <row r="581" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
@@ -30624,7 +30920,7 @@
       <c r="AI581" s="1"/>
       <c r="AJ581" s="1"/>
     </row>
-    <row r="582" spans="2:36" s="7" customFormat="1">
+    <row r="582" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
@@ -30661,7 +30957,7 @@
       <c r="AI582" s="1"/>
       <c r="AJ582" s="1"/>
     </row>
-    <row r="583" spans="2:36" s="7" customFormat="1">
+    <row r="583" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
@@ -30698,7 +30994,7 @@
       <c r="AI583" s="1"/>
       <c r="AJ583" s="1"/>
     </row>
-    <row r="584" spans="2:36" s="7" customFormat="1">
+    <row r="584" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
@@ -30735,7 +31031,7 @@
       <c r="AI584" s="1"/>
       <c r="AJ584" s="1"/>
     </row>
-    <row r="585" spans="2:36" s="7" customFormat="1">
+    <row r="585" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
@@ -30772,7 +31068,7 @@
       <c r="AI585" s="1"/>
       <c r="AJ585" s="1"/>
     </row>
-    <row r="586" spans="2:36" s="7" customFormat="1">
+    <row r="586" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
@@ -30809,7 +31105,7 @@
       <c r="AI586" s="1"/>
       <c r="AJ586" s="1"/>
     </row>
-    <row r="587" spans="2:36" s="7" customFormat="1">
+    <row r="587" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
@@ -30846,7 +31142,7 @@
       <c r="AI587" s="1"/>
       <c r="AJ587" s="1"/>
     </row>
-    <row r="588" spans="2:36" s="7" customFormat="1">
+    <row r="588" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
@@ -30883,7 +31179,7 @@
       <c r="AI588" s="1"/>
       <c r="AJ588" s="1"/>
     </row>
-    <row r="589" spans="2:36" s="7" customFormat="1">
+    <row r="589" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
@@ -30920,7 +31216,7 @@
       <c r="AI589" s="1"/>
       <c r="AJ589" s="1"/>
     </row>
-    <row r="590" spans="2:36" s="7" customFormat="1">
+    <row r="590" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
@@ -30957,7 +31253,7 @@
       <c r="AI590" s="1"/>
       <c r="AJ590" s="1"/>
     </row>
-    <row r="591" spans="2:36" s="7" customFormat="1">
+    <row r="591" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
@@ -30994,7 +31290,7 @@
       <c r="AI591" s="1"/>
       <c r="AJ591" s="1"/>
     </row>
-    <row r="592" spans="2:36" s="7" customFormat="1">
+    <row r="592" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
@@ -31031,7 +31327,7 @@
       <c r="AI592" s="1"/>
       <c r="AJ592" s="1"/>
     </row>
-    <row r="593" spans="2:36" s="7" customFormat="1">
+    <row r="593" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
@@ -31068,7 +31364,7 @@
       <c r="AI593" s="1"/>
       <c r="AJ593" s="1"/>
     </row>
-    <row r="594" spans="2:36" s="7" customFormat="1">
+    <row r="594" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
@@ -31105,7 +31401,7 @@
       <c r="AI594" s="1"/>
       <c r="AJ594" s="1"/>
     </row>
-    <row r="595" spans="2:36" s="7" customFormat="1">
+    <row r="595" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
@@ -31142,7 +31438,7 @@
       <c r="AI595" s="1"/>
       <c r="AJ595" s="1"/>
     </row>
-    <row r="596" spans="2:36" s="7" customFormat="1">
+    <row r="596" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
@@ -31179,7 +31475,7 @@
       <c r="AI596" s="1"/>
       <c r="AJ596" s="1"/>
     </row>
-    <row r="597" spans="2:36" s="7" customFormat="1">
+    <row r="597" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
@@ -31216,7 +31512,7 @@
       <c r="AI597" s="1"/>
       <c r="AJ597" s="1"/>
     </row>
-    <row r="598" spans="2:36" s="7" customFormat="1">
+    <row r="598" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -31253,7 +31549,7 @@
       <c r="AI598" s="1"/>
       <c r="AJ598" s="1"/>
     </row>
-    <row r="599" spans="2:36" s="7" customFormat="1">
+    <row r="599" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
@@ -31290,7 +31586,7 @@
       <c r="AI599" s="1"/>
       <c r="AJ599" s="1"/>
     </row>
-    <row r="600" spans="2:36" s="7" customFormat="1">
+    <row r="600" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
@@ -31327,7 +31623,7 @@
       <c r="AI600" s="1"/>
       <c r="AJ600" s="1"/>
     </row>
-    <row r="601" spans="2:36" s="7" customFormat="1">
+    <row r="601" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
@@ -31364,7 +31660,7 @@
       <c r="AI601" s="1"/>
       <c r="AJ601" s="1"/>
     </row>
-    <row r="602" spans="2:36" s="7" customFormat="1">
+    <row r="602" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -31401,7 +31697,7 @@
       <c r="AI602" s="1"/>
       <c r="AJ602" s="1"/>
     </row>
-    <row r="603" spans="2:36" s="7" customFormat="1">
+    <row r="603" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
@@ -31438,7 +31734,7 @@
       <c r="AI603" s="1"/>
       <c r="AJ603" s="1"/>
     </row>
-    <row r="604" spans="2:36" s="7" customFormat="1">
+    <row r="604" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
@@ -31475,7 +31771,7 @@
       <c r="AI604" s="1"/>
       <c r="AJ604" s="1"/>
     </row>
-    <row r="605" spans="2:36" s="7" customFormat="1">
+    <row r="605" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -31512,7 +31808,7 @@
       <c r="AI605" s="1"/>
       <c r="AJ605" s="1"/>
     </row>
-    <row r="606" spans="2:36" s="7" customFormat="1">
+    <row r="606" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
@@ -31549,7 +31845,7 @@
       <c r="AI606" s="1"/>
       <c r="AJ606" s="1"/>
     </row>
-    <row r="607" spans="2:36" s="7" customFormat="1">
+    <row r="607" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
@@ -31586,7 +31882,7 @@
       <c r="AI607" s="1"/>
       <c r="AJ607" s="1"/>
     </row>
-    <row r="608" spans="2:36" s="7" customFormat="1">
+    <row r="608" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
@@ -31623,7 +31919,7 @@
       <c r="AI608" s="1"/>
       <c r="AJ608" s="1"/>
     </row>
-    <row r="609" spans="2:36" s="7" customFormat="1">
+    <row r="609" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
@@ -31660,7 +31956,7 @@
       <c r="AI609" s="1"/>
       <c r="AJ609" s="1"/>
     </row>
-    <row r="610" spans="2:36" s="7" customFormat="1">
+    <row r="610" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
@@ -31697,7 +31993,7 @@
       <c r="AI610" s="1"/>
       <c r="AJ610" s="1"/>
     </row>
-    <row r="611" spans="2:36" s="7" customFormat="1">
+    <row r="611" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
@@ -31734,7 +32030,7 @@
       <c r="AI611" s="1"/>
       <c r="AJ611" s="1"/>
     </row>
-    <row r="612" spans="2:36" s="7" customFormat="1">
+    <row r="612" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
@@ -31771,7 +32067,7 @@
       <c r="AI612" s="1"/>
       <c r="AJ612" s="1"/>
     </row>
-    <row r="613" spans="2:36" s="7" customFormat="1">
+    <row r="613" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
@@ -31808,7 +32104,7 @@
       <c r="AI613" s="1"/>
       <c r="AJ613" s="1"/>
     </row>
-    <row r="614" spans="2:36" s="7" customFormat="1">
+    <row r="614" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
@@ -31845,7 +32141,7 @@
       <c r="AI614" s="1"/>
       <c r="AJ614" s="1"/>
     </row>
-    <row r="615" spans="2:36" s="7" customFormat="1">
+    <row r="615" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
@@ -31882,7 +32178,7 @@
       <c r="AI615" s="1"/>
       <c r="AJ615" s="1"/>
     </row>
-    <row r="616" spans="2:36" s="7" customFormat="1">
+    <row r="616" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
@@ -31919,7 +32215,7 @@
       <c r="AI616" s="1"/>
       <c r="AJ616" s="1"/>
     </row>
-    <row r="617" spans="2:36" s="7" customFormat="1">
+    <row r="617" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
@@ -31956,7 +32252,7 @@
       <c r="AI617" s="1"/>
       <c r="AJ617" s="1"/>
     </row>
-    <row r="618" spans="2:36" s="7" customFormat="1">
+    <row r="618" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
@@ -31993,7 +32289,7 @@
       <c r="AI618" s="1"/>
       <c r="AJ618" s="1"/>
     </row>
-    <row r="619" spans="2:36" s="7" customFormat="1">
+    <row r="619" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -32030,7 +32326,7 @@
       <c r="AI619" s="1"/>
       <c r="AJ619" s="1"/>
     </row>
-    <row r="620" spans="2:36" s="7" customFormat="1">
+    <row r="620" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
@@ -32067,7 +32363,7 @@
       <c r="AI620" s="1"/>
       <c r="AJ620" s="1"/>
     </row>
-    <row r="621" spans="2:36" s="7" customFormat="1">
+    <row r="621" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
@@ -32104,7 +32400,7 @@
       <c r="AI621" s="1"/>
       <c r="AJ621" s="1"/>
     </row>
-    <row r="622" spans="2:36" s="7" customFormat="1">
+    <row r="622" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
@@ -32141,7 +32437,7 @@
       <c r="AI622" s="1"/>
       <c r="AJ622" s="1"/>
     </row>
-    <row r="623" spans="2:36" s="7" customFormat="1">
+    <row r="623" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
@@ -32178,7 +32474,7 @@
       <c r="AI623" s="1"/>
       <c r="AJ623" s="1"/>
     </row>
-    <row r="624" spans="2:36" s="7" customFormat="1">
+    <row r="624" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -32215,7 +32511,7 @@
       <c r="AI624" s="1"/>
       <c r="AJ624" s="1"/>
     </row>
-    <row r="625" spans="2:36" s="7" customFormat="1">
+    <row r="625" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
@@ -32252,7 +32548,7 @@
       <c r="AI625" s="1"/>
       <c r="AJ625" s="1"/>
     </row>
-    <row r="626" spans="2:36" s="7" customFormat="1">
+    <row r="626" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
@@ -32289,7 +32585,7 @@
       <c r="AI626" s="1"/>
       <c r="AJ626" s="1"/>
     </row>
-    <row r="627" spans="2:36" s="7" customFormat="1">
+    <row r="627" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
@@ -32326,7 +32622,7 @@
       <c r="AI627" s="1"/>
       <c r="AJ627" s="1"/>
     </row>
-    <row r="628" spans="2:36" s="7" customFormat="1">
+    <row r="628" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
@@ -32363,7 +32659,7 @@
       <c r="AI628" s="1"/>
       <c r="AJ628" s="1"/>
     </row>
-    <row r="629" spans="2:36" s="7" customFormat="1">
+    <row r="629" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
@@ -32400,7 +32696,7 @@
       <c r="AI629" s="1"/>
       <c r="AJ629" s="1"/>
     </row>
-    <row r="630" spans="2:36" s="7" customFormat="1">
+    <row r="630" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
@@ -32437,7 +32733,7 @@
       <c r="AI630" s="1"/>
       <c r="AJ630" s="1"/>
     </row>
-    <row r="631" spans="2:36" s="7" customFormat="1">
+    <row r="631" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
@@ -32474,7 +32770,7 @@
       <c r="AI631" s="1"/>
       <c r="AJ631" s="1"/>
     </row>
-    <row r="632" spans="2:36" s="7" customFormat="1">
+    <row r="632" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
@@ -32511,7 +32807,7 @@
       <c r="AI632" s="1"/>
       <c r="AJ632" s="1"/>
     </row>
-    <row r="633" spans="2:36" s="7" customFormat="1">
+    <row r="633" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
@@ -32548,7 +32844,7 @@
       <c r="AI633" s="1"/>
       <c r="AJ633" s="1"/>
     </row>
-    <row r="634" spans="2:36" s="7" customFormat="1">
+    <row r="634" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
@@ -32585,7 +32881,7 @@
       <c r="AI634" s="1"/>
       <c r="AJ634" s="1"/>
     </row>
-    <row r="635" spans="2:36" s="7" customFormat="1">
+    <row r="635" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
@@ -32622,7 +32918,7 @@
       <c r="AI635" s="1"/>
       <c r="AJ635" s="1"/>
     </row>
-    <row r="636" spans="2:36" s="7" customFormat="1">
+    <row r="636" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
@@ -32659,7 +32955,7 @@
       <c r="AI636" s="1"/>
       <c r="AJ636" s="1"/>
     </row>
-    <row r="637" spans="2:36" s="7" customFormat="1">
+    <row r="637" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
@@ -32696,7 +32992,7 @@
       <c r="AI637" s="1"/>
       <c r="AJ637" s="1"/>
     </row>
-    <row r="638" spans="2:36" s="7" customFormat="1">
+    <row r="638" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
@@ -32733,7 +33029,7 @@
       <c r="AI638" s="1"/>
       <c r="AJ638" s="1"/>
     </row>
-    <row r="639" spans="2:36" s="7" customFormat="1">
+    <row r="639" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
@@ -32770,7 +33066,7 @@
       <c r="AI639" s="1"/>
       <c r="AJ639" s="1"/>
     </row>
-    <row r="640" spans="2:36" s="7" customFormat="1">
+    <row r="640" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
@@ -32807,7 +33103,7 @@
       <c r="AI640" s="1"/>
       <c r="AJ640" s="1"/>
     </row>
-    <row r="641" spans="2:36" s="7" customFormat="1">
+    <row r="641" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
@@ -32844,7 +33140,7 @@
       <c r="AI641" s="1"/>
       <c r="AJ641" s="1"/>
     </row>
-    <row r="642" spans="2:36" s="7" customFormat="1">
+    <row r="642" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
@@ -32881,7 +33177,7 @@
       <c r="AI642" s="1"/>
       <c r="AJ642" s="1"/>
     </row>
-    <row r="643" spans="2:36" s="7" customFormat="1">
+    <row r="643" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
@@ -32918,7 +33214,7 @@
       <c r="AI643" s="1"/>
       <c r="AJ643" s="1"/>
     </row>
-    <row r="644" spans="2:36" s="7" customFormat="1">
+    <row r="644" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
@@ -32955,7 +33251,7 @@
       <c r="AI644" s="1"/>
       <c r="AJ644" s="1"/>
     </row>
-    <row r="645" spans="2:36" s="7" customFormat="1">
+    <row r="645" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
@@ -32992,7 +33288,7 @@
       <c r="AI645" s="1"/>
       <c r="AJ645" s="1"/>
     </row>
-    <row r="646" spans="2:36" s="7" customFormat="1">
+    <row r="646" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
@@ -33029,7 +33325,7 @@
       <c r="AI646" s="1"/>
       <c r="AJ646" s="1"/>
     </row>
-    <row r="647" spans="2:36" s="7" customFormat="1">
+    <row r="647" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
@@ -33066,7 +33362,7 @@
       <c r="AI647" s="1"/>
       <c r="AJ647" s="1"/>
     </row>
-    <row r="648" spans="2:36" s="7" customFormat="1">
+    <row r="648" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
@@ -33103,7 +33399,7 @@
       <c r="AI648" s="1"/>
       <c r="AJ648" s="1"/>
     </row>
-    <row r="649" spans="2:36" s="7" customFormat="1">
+    <row r="649" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
@@ -33140,7 +33436,7 @@
       <c r="AI649" s="1"/>
       <c r="AJ649" s="1"/>
     </row>
-    <row r="650" spans="2:36" s="7" customFormat="1">
+    <row r="650" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
@@ -33177,7 +33473,7 @@
       <c r="AI650" s="1"/>
       <c r="AJ650" s="1"/>
     </row>
-    <row r="651" spans="2:36" s="7" customFormat="1">
+    <row r="651" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
@@ -33214,7 +33510,7 @@
       <c r="AI651" s="1"/>
       <c r="AJ651" s="1"/>
     </row>
-    <row r="652" spans="2:36" s="7" customFormat="1">
+    <row r="652" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
@@ -33251,7 +33547,7 @@
       <c r="AI652" s="1"/>
       <c r="AJ652" s="1"/>
     </row>
-    <row r="653" spans="2:36" s="7" customFormat="1">
+    <row r="653" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
@@ -33288,7 +33584,7 @@
       <c r="AI653" s="1"/>
       <c r="AJ653" s="1"/>
     </row>
-    <row r="654" spans="2:36" s="7" customFormat="1">
+    <row r="654" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
@@ -33325,7 +33621,7 @@
       <c r="AI654" s="1"/>
       <c r="AJ654" s="1"/>
     </row>
-    <row r="655" spans="2:36" s="7" customFormat="1">
+    <row r="655" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
@@ -33362,7 +33658,7 @@
       <c r="AI655" s="1"/>
       <c r="AJ655" s="1"/>
     </row>
-    <row r="656" spans="2:36" s="7" customFormat="1">
+    <row r="656" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
@@ -33399,7 +33695,7 @@
       <c r="AI656" s="1"/>
       <c r="AJ656" s="1"/>
     </row>
-    <row r="657" spans="2:36" s="7" customFormat="1">
+    <row r="657" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
@@ -33436,7 +33732,7 @@
       <c r="AI657" s="1"/>
       <c r="AJ657" s="1"/>
     </row>
-    <row r="658" spans="2:36" s="7" customFormat="1">
+    <row r="658" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
@@ -33473,7 +33769,7 @@
       <c r="AI658" s="1"/>
       <c r="AJ658" s="1"/>
     </row>
-    <row r="659" spans="2:36" s="7" customFormat="1">
+    <row r="659" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
@@ -33510,7 +33806,7 @@
       <c r="AI659" s="1"/>
       <c r="AJ659" s="1"/>
     </row>
-    <row r="660" spans="2:36" s="7" customFormat="1">
+    <row r="660" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -33547,7 +33843,7 @@
       <c r="AI660" s="1"/>
       <c r="AJ660" s="1"/>
     </row>
-    <row r="661" spans="2:36" s="7" customFormat="1">
+    <row r="661" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
@@ -33584,7 +33880,7 @@
       <c r="AI661" s="1"/>
       <c r="AJ661" s="1"/>
     </row>
-    <row r="662" spans="2:36" s="7" customFormat="1">
+    <row r="662" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
@@ -33621,7 +33917,7 @@
       <c r="AI662" s="1"/>
       <c r="AJ662" s="1"/>
     </row>
-    <row r="663" spans="2:36" s="7" customFormat="1">
+    <row r="663" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
@@ -33658,7 +33954,7 @@
       <c r="AI663" s="1"/>
       <c r="AJ663" s="1"/>
     </row>
-    <row r="664" spans="2:36" s="7" customFormat="1">
+    <row r="664" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
@@ -33695,7 +33991,7 @@
       <c r="AI664" s="1"/>
       <c r="AJ664" s="1"/>
     </row>
-    <row r="665" spans="2:36" s="7" customFormat="1">
+    <row r="665" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
@@ -33732,7 +34028,7 @@
       <c r="AI665" s="1"/>
       <c r="AJ665" s="1"/>
     </row>
-    <row r="666" spans="2:36" s="7" customFormat="1">
+    <row r="666" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
@@ -33769,7 +34065,7 @@
       <c r="AI666" s="1"/>
       <c r="AJ666" s="1"/>
     </row>
-    <row r="667" spans="2:36" s="7" customFormat="1">
+    <row r="667" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
@@ -33806,7 +34102,7 @@
       <c r="AI667" s="1"/>
       <c r="AJ667" s="1"/>
     </row>
-    <row r="668" spans="2:36" s="7" customFormat="1">
+    <row r="668" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
@@ -33843,7 +34139,7 @@
       <c r="AI668" s="1"/>
       <c r="AJ668" s="1"/>
     </row>
-    <row r="669" spans="2:36" s="7" customFormat="1">
+    <row r="669" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
@@ -33880,7 +34176,7 @@
       <c r="AI669" s="1"/>
       <c r="AJ669" s="1"/>
     </row>
-    <row r="670" spans="2:36" s="7" customFormat="1">
+    <row r="670" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
@@ -33917,7 +34213,7 @@
       <c r="AI670" s="1"/>
       <c r="AJ670" s="1"/>
     </row>
-    <row r="671" spans="2:36" s="7" customFormat="1">
+    <row r="671" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
       <c r="D671" s="1"/>
@@ -33954,7 +34250,7 @@
       <c r="AI671" s="1"/>
       <c r="AJ671" s="1"/>
     </row>
-    <row r="672" spans="2:36" s="7" customFormat="1">
+    <row r="672" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
       <c r="D672" s="1"/>
@@ -33991,7 +34287,7 @@
       <c r="AI672" s="1"/>
       <c r="AJ672" s="1"/>
     </row>
-    <row r="673" spans="2:36" s="7" customFormat="1">
+    <row r="673" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
       <c r="D673" s="1"/>
@@ -34028,7 +34324,7 @@
       <c r="AI673" s="1"/>
       <c r="AJ673" s="1"/>
     </row>
-    <row r="674" spans="2:36" s="7" customFormat="1">
+    <row r="674" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
       <c r="D674" s="1"/>
@@ -34065,7 +34361,7 @@
       <c r="AI674" s="1"/>
       <c r="AJ674" s="1"/>
     </row>
-    <row r="675" spans="2:36" s="7" customFormat="1">
+    <row r="675" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
       <c r="D675" s="1"/>
@@ -34102,7 +34398,7 @@
       <c r="AI675" s="1"/>
       <c r="AJ675" s="1"/>
     </row>
-    <row r="676" spans="2:36" s="7" customFormat="1">
+    <row r="676" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
       <c r="D676" s="1"/>
@@ -34139,7 +34435,7 @@
       <c r="AI676" s="1"/>
       <c r="AJ676" s="1"/>
     </row>
-    <row r="677" spans="2:36" s="7" customFormat="1">
+    <row r="677" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -34176,7 +34472,7 @@
       <c r="AI677" s="1"/>
       <c r="AJ677" s="1"/>
     </row>
-    <row r="678" spans="2:36" s="7" customFormat="1">
+    <row r="678" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
@@ -34213,7 +34509,7 @@
       <c r="AI678" s="1"/>
       <c r="AJ678" s="1"/>
     </row>
-    <row r="679" spans="2:36" s="7" customFormat="1">
+    <row r="679" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
@@ -34250,7 +34546,7 @@
       <c r="AI679" s="1"/>
       <c r="AJ679" s="1"/>
     </row>
-    <row r="680" spans="2:36" s="7" customFormat="1">
+    <row r="680" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
@@ -34287,7 +34583,7 @@
       <c r="AI680" s="1"/>
       <c r="AJ680" s="1"/>
     </row>
-    <row r="681" spans="2:36" s="7" customFormat="1">
+    <row r="681" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
@@ -34324,7 +34620,7 @@
       <c r="AI681" s="1"/>
       <c r="AJ681" s="1"/>
     </row>
-    <row r="682" spans="2:36" s="7" customFormat="1">
+    <row r="682" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
@@ -34361,7 +34657,7 @@
       <c r="AI682" s="1"/>
       <c r="AJ682" s="1"/>
     </row>
-    <row r="683" spans="2:36" s="7" customFormat="1">
+    <row r="683" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
@@ -34398,7 +34694,7 @@
       <c r="AI683" s="1"/>
       <c r="AJ683" s="1"/>
     </row>
-    <row r="684" spans="2:36" s="7" customFormat="1">
+    <row r="684" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
       <c r="D684" s="1"/>
@@ -34435,7 +34731,7 @@
       <c r="AI684" s="1"/>
       <c r="AJ684" s="1"/>
     </row>
-    <row r="685" spans="2:36" s="7" customFormat="1">
+    <row r="685" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
       <c r="D685" s="1"/>
@@ -34472,7 +34768,7 @@
       <c r="AI685" s="1"/>
       <c r="AJ685" s="1"/>
     </row>
-    <row r="686" spans="2:36" s="7" customFormat="1">
+    <row r="686" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
@@ -34509,7 +34805,7 @@
       <c r="AI686" s="1"/>
       <c r="AJ686" s="1"/>
     </row>
-    <row r="687" spans="2:36" s="7" customFormat="1">
+    <row r="687" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
       <c r="D687" s="1"/>
@@ -34546,7 +34842,7 @@
       <c r="AI687" s="1"/>
       <c r="AJ687" s="1"/>
     </row>
-    <row r="688" spans="2:36" s="7" customFormat="1">
+    <row r="688" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
       <c r="D688" s="1"/>
@@ -34583,7 +34879,7 @@
       <c r="AI688" s="1"/>
       <c r="AJ688" s="1"/>
     </row>
-    <row r="689" spans="2:36" s="7" customFormat="1">
+    <row r="689" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
       <c r="D689" s="1"/>
@@ -34620,7 +34916,7 @@
       <c r="AI689" s="1"/>
       <c r="AJ689" s="1"/>
     </row>
-    <row r="690" spans="2:36" s="7" customFormat="1">
+    <row r="690" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
       <c r="D690" s="1"/>
@@ -34657,7 +34953,7 @@
       <c r="AI690" s="1"/>
       <c r="AJ690" s="1"/>
     </row>
-    <row r="691" spans="2:36" s="7" customFormat="1">
+    <row r="691" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
       <c r="D691" s="1"/>
@@ -34694,7 +34990,7 @@
       <c r="AI691" s="1"/>
       <c r="AJ691" s="1"/>
     </row>
-    <row r="692" spans="2:36" s="7" customFormat="1">
+    <row r="692" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
@@ -34731,7 +35027,7 @@
       <c r="AI692" s="1"/>
       <c r="AJ692" s="1"/>
     </row>
-    <row r="693" spans="2:36" s="7" customFormat="1">
+    <row r="693" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
       <c r="D693" s="1"/>
@@ -34768,7 +35064,7 @@
       <c r="AI693" s="1"/>
       <c r="AJ693" s="1"/>
     </row>
-    <row r="694" spans="2:36" s="7" customFormat="1">
+    <row r="694" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
@@ -34805,7 +35101,7 @@
       <c r="AI694" s="1"/>
       <c r="AJ694" s="1"/>
     </row>
-    <row r="695" spans="2:36" s="7" customFormat="1">
+    <row r="695" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
@@ -34842,7 +35138,7 @@
       <c r="AI695" s="1"/>
       <c r="AJ695" s="1"/>
     </row>
-    <row r="696" spans="2:36" s="7" customFormat="1">
+    <row r="696" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
@@ -34879,7 +35175,7 @@
       <c r="AI696" s="1"/>
       <c r="AJ696" s="1"/>
     </row>
-    <row r="697" spans="2:36" s="7" customFormat="1">
+    <row r="697" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
@@ -34916,7 +35212,7 @@
       <c r="AI697" s="1"/>
       <c r="AJ697" s="1"/>
     </row>
-    <row r="698" spans="2:36" s="7" customFormat="1">
+    <row r="698" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
@@ -34953,7 +35249,7 @@
       <c r="AI698" s="1"/>
       <c r="AJ698" s="1"/>
     </row>
-    <row r="699" spans="2:36" s="7" customFormat="1">
+    <row r="699" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
@@ -34990,7 +35286,7 @@
       <c r="AI699" s="1"/>
       <c r="AJ699" s="1"/>
     </row>
-    <row r="700" spans="2:36" s="7" customFormat="1">
+    <row r="700" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
@@ -35027,7 +35323,7 @@
       <c r="AI700" s="1"/>
       <c r="AJ700" s="1"/>
     </row>
-    <row r="701" spans="2:36" s="7" customFormat="1">
+    <row r="701" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
@@ -35064,7 +35360,7 @@
       <c r="AI701" s="1"/>
       <c r="AJ701" s="1"/>
     </row>
-    <row r="702" spans="2:36" s="7" customFormat="1">
+    <row r="702" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
@@ -35101,7 +35397,7 @@
       <c r="AI702" s="1"/>
       <c r="AJ702" s="1"/>
     </row>
-    <row r="703" spans="2:36" s="7" customFormat="1">
+    <row r="703" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
@@ -35138,7 +35434,7 @@
       <c r="AI703" s="1"/>
       <c r="AJ703" s="1"/>
     </row>
-    <row r="704" spans="2:36" s="7" customFormat="1">
+    <row r="704" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
@@ -35175,7 +35471,7 @@
       <c r="AI704" s="1"/>
       <c r="AJ704" s="1"/>
     </row>
-    <row r="705" spans="2:36" s="7" customFormat="1">
+    <row r="705" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
@@ -35212,7 +35508,7 @@
       <c r="AI705" s="1"/>
       <c r="AJ705" s="1"/>
     </row>
-    <row r="706" spans="2:36" s="7" customFormat="1">
+    <row r="706" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
@@ -35249,7 +35545,7 @@
       <c r="AI706" s="1"/>
       <c r="AJ706" s="1"/>
     </row>
-    <row r="707" spans="2:36" s="7" customFormat="1">
+    <row r="707" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
       <c r="D707" s="1"/>
@@ -35286,7 +35582,7 @@
       <c r="AI707" s="1"/>
       <c r="AJ707" s="1"/>
     </row>
-    <row r="708" spans="2:36" s="7" customFormat="1">
+    <row r="708" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
       <c r="D708" s="1"/>
@@ -35323,7 +35619,7 @@
       <c r="AI708" s="1"/>
       <c r="AJ708" s="1"/>
     </row>
-    <row r="709" spans="2:36" s="7" customFormat="1">
+    <row r="709" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
       <c r="D709" s="1"/>
@@ -35360,7 +35656,7 @@
       <c r="AI709" s="1"/>
       <c r="AJ709" s="1"/>
     </row>
-    <row r="710" spans="2:36" s="7" customFormat="1">
+    <row r="710" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
       <c r="D710" s="1"/>
@@ -35397,7 +35693,7 @@
       <c r="AI710" s="1"/>
       <c r="AJ710" s="1"/>
     </row>
-    <row r="711" spans="2:36" s="7" customFormat="1">
+    <row r="711" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
       <c r="D711" s="1"/>
@@ -35434,7 +35730,7 @@
       <c r="AI711" s="1"/>
       <c r="AJ711" s="1"/>
     </row>
-    <row r="712" spans="2:36" s="7" customFormat="1">
+    <row r="712" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
       <c r="D712" s="1"/>
@@ -35471,7 +35767,7 @@
       <c r="AI712" s="1"/>
       <c r="AJ712" s="1"/>
     </row>
-    <row r="713" spans="2:36" s="7" customFormat="1">
+    <row r="713" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
       <c r="D713" s="1"/>
@@ -35508,7 +35804,7 @@
       <c r="AI713" s="1"/>
       <c r="AJ713" s="1"/>
     </row>
-    <row r="714" spans="2:36" s="7" customFormat="1">
+    <row r="714" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
       <c r="D714" s="1"/>
@@ -35545,7 +35841,7 @@
       <c r="AI714" s="1"/>
       <c r="AJ714" s="1"/>
     </row>
-    <row r="715" spans="2:36" s="7" customFormat="1">
+    <row r="715" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
       <c r="D715" s="1"/>
@@ -35582,7 +35878,7 @@
       <c r="AI715" s="1"/>
       <c r="AJ715" s="1"/>
     </row>
-    <row r="716" spans="2:36" s="7" customFormat="1">
+    <row r="716" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
       <c r="D716" s="1"/>
@@ -35619,7 +35915,7 @@
       <c r="AI716" s="1"/>
       <c r="AJ716" s="1"/>
     </row>
-    <row r="717" spans="2:36" s="7" customFormat="1">
+    <row r="717" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
       <c r="D717" s="1"/>
@@ -35656,7 +35952,7 @@
       <c r="AI717" s="1"/>
       <c r="AJ717" s="1"/>
     </row>
-    <row r="718" spans="2:36" s="7" customFormat="1">
+    <row r="718" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
       <c r="D718" s="1"/>
@@ -35693,7 +35989,7 @@
       <c r="AI718" s="1"/>
       <c r="AJ718" s="1"/>
     </row>
-    <row r="719" spans="2:36" s="7" customFormat="1">
+    <row r="719" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
       <c r="D719" s="1"/>
@@ -35730,7 +36026,7 @@
       <c r="AI719" s="1"/>
       <c r="AJ719" s="1"/>
     </row>
-    <row r="720" spans="2:36" s="7" customFormat="1">
+    <row r="720" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
@@ -35767,7 +36063,7 @@
       <c r="AI720" s="1"/>
       <c r="AJ720" s="1"/>
     </row>
-    <row r="721" spans="2:36" s="7" customFormat="1">
+    <row r="721" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
@@ -35804,7 +36100,7 @@
       <c r="AI721" s="1"/>
       <c r="AJ721" s="1"/>
     </row>
-    <row r="722" spans="2:36" s="7" customFormat="1">
+    <row r="722" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
@@ -35841,7 +36137,7 @@
       <c r="AI722" s="1"/>
       <c r="AJ722" s="1"/>
     </row>
-    <row r="723" spans="2:36" s="7" customFormat="1">
+    <row r="723" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
@@ -35878,7 +36174,7 @@
       <c r="AI723" s="1"/>
       <c r="AJ723" s="1"/>
     </row>
-    <row r="724" spans="2:36" s="7" customFormat="1">
+    <row r="724" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
@@ -35915,7 +36211,7 @@
       <c r="AI724" s="1"/>
       <c r="AJ724" s="1"/>
     </row>
-    <row r="725" spans="2:36" s="7" customFormat="1">
+    <row r="725" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
@@ -35952,7 +36248,7 @@
       <c r="AI725" s="1"/>
       <c r="AJ725" s="1"/>
     </row>
-    <row r="726" spans="2:36" s="7" customFormat="1">
+    <row r="726" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
@@ -35989,7 +36285,7 @@
       <c r="AI726" s="1"/>
       <c r="AJ726" s="1"/>
     </row>
-    <row r="727" spans="2:36" s="7" customFormat="1">
+    <row r="727" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
@@ -36026,7 +36322,7 @@
       <c r="AI727" s="1"/>
       <c r="AJ727" s="1"/>
     </row>
-    <row r="728" spans="2:36" s="7" customFormat="1">
+    <row r="728" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
@@ -36063,7 +36359,7 @@
       <c r="AI728" s="1"/>
       <c r="AJ728" s="1"/>
     </row>
-    <row r="729" spans="2:36" s="7" customFormat="1">
+    <row r="729" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
@@ -36100,7 +36396,7 @@
       <c r="AI729" s="1"/>
       <c r="AJ729" s="1"/>
     </row>
-    <row r="730" spans="2:36" s="7" customFormat="1">
+    <row r="730" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
@@ -36137,7 +36433,7 @@
       <c r="AI730" s="1"/>
       <c r="AJ730" s="1"/>
     </row>
-    <row r="731" spans="2:36" s="7" customFormat="1">
+    <row r="731" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
@@ -36174,7 +36470,7 @@
       <c r="AI731" s="1"/>
       <c r="AJ731" s="1"/>
     </row>
-    <row r="732" spans="2:36" s="7" customFormat="1">
+    <row r="732" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
@@ -36211,7 +36507,7 @@
       <c r="AI732" s="1"/>
       <c r="AJ732" s="1"/>
     </row>
-    <row r="733" spans="2:36" s="7" customFormat="1">
+    <row r="733" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
@@ -36248,7 +36544,7 @@
       <c r="AI733" s="1"/>
       <c r="AJ733" s="1"/>
     </row>
-    <row r="734" spans="2:36" s="7" customFormat="1">
+    <row r="734" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
@@ -36285,7 +36581,7 @@
       <c r="AI734" s="1"/>
       <c r="AJ734" s="1"/>
     </row>
-    <row r="735" spans="2:36" s="7" customFormat="1">
+    <row r="735" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
@@ -36322,7 +36618,7 @@
       <c r="AI735" s="1"/>
       <c r="AJ735" s="1"/>
     </row>
-    <row r="736" spans="2:36" s="7" customFormat="1">
+    <row r="736" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
@@ -36359,7 +36655,7 @@
       <c r="AI736" s="1"/>
       <c r="AJ736" s="1"/>
     </row>
-    <row r="737" spans="2:36" s="7" customFormat="1">
+    <row r="737" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
@@ -36396,7 +36692,7 @@
       <c r="AI737" s="1"/>
       <c r="AJ737" s="1"/>
     </row>
-    <row r="738" spans="2:36" s="7" customFormat="1">
+    <row r="738" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
@@ -36433,7 +36729,7 @@
       <c r="AI738" s="1"/>
       <c r="AJ738" s="1"/>
     </row>
-    <row r="739" spans="2:36" s="7" customFormat="1">
+    <row r="739" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
@@ -36470,7 +36766,7 @@
       <c r="AI739" s="1"/>
       <c r="AJ739" s="1"/>
     </row>
-    <row r="740" spans="2:36" s="7" customFormat="1">
+    <row r="740" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
@@ -36507,7 +36803,7 @@
       <c r="AI740" s="1"/>
       <c r="AJ740" s="1"/>
     </row>
-    <row r="741" spans="2:36" s="7" customFormat="1">
+    <row r="741" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
@@ -36544,7 +36840,7 @@
       <c r="AI741" s="1"/>
       <c r="AJ741" s="1"/>
     </row>
-    <row r="742" spans="2:36" s="7" customFormat="1">
+    <row r="742" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
@@ -36581,7 +36877,7 @@
       <c r="AI742" s="1"/>
       <c r="AJ742" s="1"/>
     </row>
-    <row r="743" spans="2:36" s="7" customFormat="1">
+    <row r="743" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
@@ -36618,7 +36914,7 @@
       <c r="AI743" s="1"/>
       <c r="AJ743" s="1"/>
     </row>
-    <row r="744" spans="2:36" s="7" customFormat="1">
+    <row r="744" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
@@ -36655,7 +36951,7 @@
       <c r="AI744" s="1"/>
       <c r="AJ744" s="1"/>
     </row>
-    <row r="745" spans="2:36" s="7" customFormat="1">
+    <row r="745" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -36692,7 +36988,7 @@
       <c r="AI745" s="1"/>
       <c r="AJ745" s="1"/>
     </row>
-    <row r="746" spans="2:36" s="7" customFormat="1">
+    <row r="746" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
@@ -36729,7 +37025,7 @@
       <c r="AI746" s="1"/>
       <c r="AJ746" s="1"/>
     </row>
-    <row r="747" spans="2:36" s="7" customFormat="1">
+    <row r="747" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
@@ -36766,7 +37062,7 @@
       <c r="AI747" s="1"/>
       <c r="AJ747" s="1"/>
     </row>
-    <row r="748" spans="2:36" s="7" customFormat="1">
+    <row r="748" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
@@ -36803,7 +37099,7 @@
       <c r="AI748" s="1"/>
       <c r="AJ748" s="1"/>
     </row>
-    <row r="749" spans="2:36" s="7" customFormat="1">
+    <row r="749" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
@@ -36840,7 +37136,7 @@
       <c r="AI749" s="1"/>
       <c r="AJ749" s="1"/>
     </row>
-    <row r="750" spans="2:36" s="7" customFormat="1">
+    <row r="750" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
@@ -36877,7 +37173,7 @@
       <c r="AI750" s="1"/>
       <c r="AJ750" s="1"/>
     </row>
-    <row r="751" spans="2:36" s="7" customFormat="1">
+    <row r="751" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
@@ -36914,7 +37210,7 @@
       <c r="AI751" s="1"/>
       <c r="AJ751" s="1"/>
     </row>
-    <row r="752" spans="2:36" s="7" customFormat="1">
+    <row r="752" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
@@ -36951,7 +37247,7 @@
       <c r="AI752" s="1"/>
       <c r="AJ752" s="1"/>
     </row>
-    <row r="753" spans="2:36" s="7" customFormat="1">
+    <row r="753" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
       <c r="D753" s="1"/>
@@ -36988,7 +37284,7 @@
       <c r="AI753" s="1"/>
       <c r="AJ753" s="1"/>
     </row>
-    <row r="754" spans="2:36" s="7" customFormat="1">
+    <row r="754" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
       <c r="D754" s="1"/>
@@ -37025,7 +37321,7 @@
       <c r="AI754" s="1"/>
       <c r="AJ754" s="1"/>
     </row>
-    <row r="755" spans="2:36" s="7" customFormat="1">
+    <row r="755" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
       <c r="D755" s="1"/>
@@ -37062,7 +37358,7 @@
       <c r="AI755" s="1"/>
       <c r="AJ755" s="1"/>
     </row>
-    <row r="756" spans="2:36" s="7" customFormat="1">
+    <row r="756" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
       <c r="D756" s="1"/>
@@ -37099,7 +37395,7 @@
       <c r="AI756" s="1"/>
       <c r="AJ756" s="1"/>
     </row>
-    <row r="757" spans="2:36" s="7" customFormat="1">
+    <row r="757" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
       <c r="D757" s="1"/>
@@ -37136,7 +37432,7 @@
       <c r="AI757" s="1"/>
       <c r="AJ757" s="1"/>
     </row>
-    <row r="758" spans="2:36" s="7" customFormat="1">
+    <row r="758" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
       <c r="D758" s="1"/>
@@ -37173,7 +37469,7 @@
       <c r="AI758" s="1"/>
       <c r="AJ758" s="1"/>
     </row>
-    <row r="759" spans="2:36" s="7" customFormat="1">
+    <row r="759" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
       <c r="D759" s="1"/>
@@ -37210,7 +37506,7 @@
       <c r="AI759" s="1"/>
       <c r="AJ759" s="1"/>
     </row>
-    <row r="760" spans="2:36" s="7" customFormat="1">
+    <row r="760" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
       <c r="D760" s="1"/>
@@ -37247,7 +37543,7 @@
       <c r="AI760" s="1"/>
       <c r="AJ760" s="1"/>
     </row>
-    <row r="761" spans="2:36" s="7" customFormat="1">
+    <row r="761" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
       <c r="D761" s="1"/>
@@ -37284,7 +37580,7 @@
       <c r="AI761" s="1"/>
       <c r="AJ761" s="1"/>
     </row>
-    <row r="762" spans="2:36" s="7" customFormat="1">
+    <row r="762" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
       <c r="D762" s="1"/>
@@ -37321,7 +37617,7 @@
       <c r="AI762" s="1"/>
       <c r="AJ762" s="1"/>
     </row>
-    <row r="763" spans="2:36" s="7" customFormat="1">
+    <row r="763" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
       <c r="D763" s="1"/>
@@ -37358,7 +37654,7 @@
       <c r="AI763" s="1"/>
       <c r="AJ763" s="1"/>
     </row>
-    <row r="764" spans="2:36" s="7" customFormat="1">
+    <row r="764" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
       <c r="D764" s="1"/>
@@ -37395,7 +37691,7 @@
       <c r="AI764" s="1"/>
       <c r="AJ764" s="1"/>
     </row>
-    <row r="765" spans="2:36" s="7" customFormat="1">
+    <row r="765" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
       <c r="D765" s="1"/>
@@ -37432,7 +37728,7 @@
       <c r="AI765" s="1"/>
       <c r="AJ765" s="1"/>
     </row>
-    <row r="766" spans="2:36" s="7" customFormat="1">
+    <row r="766" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
       <c r="D766" s="1"/>
@@ -37469,7 +37765,7 @@
       <c r="AI766" s="1"/>
       <c r="AJ766" s="1"/>
     </row>
-    <row r="767" spans="2:36" s="7" customFormat="1">
+    <row r="767" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
       <c r="D767" s="1"/>
@@ -37506,7 +37802,7 @@
       <c r="AI767" s="1"/>
       <c r="AJ767" s="1"/>
     </row>
-    <row r="768" spans="2:36" s="7" customFormat="1">
+    <row r="768" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
       <c r="D768" s="1"/>
@@ -37543,7 +37839,7 @@
       <c r="AI768" s="1"/>
       <c r="AJ768" s="1"/>
     </row>
-    <row r="769" spans="2:36" s="7" customFormat="1">
+    <row r="769" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
       <c r="D769" s="1"/>
@@ -37580,7 +37876,7 @@
       <c r="AI769" s="1"/>
       <c r="AJ769" s="1"/>
     </row>
-    <row r="770" spans="2:36" s="7" customFormat="1">
+    <row r="770" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
       <c r="D770" s="1"/>
@@ -37617,7 +37913,7 @@
       <c r="AI770" s="1"/>
       <c r="AJ770" s="1"/>
     </row>
-    <row r="771" spans="2:36" s="7" customFormat="1">
+    <row r="771" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
       <c r="D771" s="1"/>
@@ -37654,7 +37950,7 @@
       <c r="AI771" s="1"/>
       <c r="AJ771" s="1"/>
     </row>
-    <row r="772" spans="2:36" s="7" customFormat="1">
+    <row r="772" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
       <c r="D772" s="1"/>
@@ -37691,7 +37987,7 @@
       <c r="AI772" s="1"/>
       <c r="AJ772" s="1"/>
     </row>
-    <row r="773" spans="2:36" s="7" customFormat="1">
+    <row r="773" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
       <c r="D773" s="1"/>
@@ -37728,7 +38024,7 @@
       <c r="AI773" s="1"/>
       <c r="AJ773" s="1"/>
     </row>
-    <row r="774" spans="2:36" s="7" customFormat="1">
+    <row r="774" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
       <c r="D774" s="1"/>
@@ -37765,7 +38061,7 @@
       <c r="AI774" s="1"/>
       <c r="AJ774" s="1"/>
     </row>
-    <row r="775" spans="2:36" s="7" customFormat="1">
+    <row r="775" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
       <c r="D775" s="1"/>
@@ -37802,7 +38098,7 @@
       <c r="AI775" s="1"/>
       <c r="AJ775" s="1"/>
     </row>
-    <row r="776" spans="2:36" s="7" customFormat="1">
+    <row r="776" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
       <c r="D776" s="1"/>
@@ -37839,7 +38135,7 @@
       <c r="AI776" s="1"/>
       <c r="AJ776" s="1"/>
     </row>
-    <row r="777" spans="2:36" s="7" customFormat="1">
+    <row r="777" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
       <c r="D777" s="1"/>
@@ -37876,7 +38172,7 @@
       <c r="AI777" s="1"/>
       <c r="AJ777" s="1"/>
     </row>
-    <row r="778" spans="2:36" s="7" customFormat="1">
+    <row r="778" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
       <c r="D778" s="1"/>
@@ -37913,7 +38209,7 @@
       <c r="AI778" s="1"/>
       <c r="AJ778" s="1"/>
     </row>
-    <row r="779" spans="2:36" s="7" customFormat="1">
+    <row r="779" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
       <c r="D779" s="1"/>
@@ -37950,7 +38246,7 @@
       <c r="AI779" s="1"/>
       <c r="AJ779" s="1"/>
     </row>
-    <row r="780" spans="2:36" s="7" customFormat="1">
+    <row r="780" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
       <c r="D780" s="1"/>
@@ -37987,7 +38283,7 @@
       <c r="AI780" s="1"/>
       <c r="AJ780" s="1"/>
     </row>
-    <row r="781" spans="2:36" s="7" customFormat="1">
+    <row r="781" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
       <c r="D781" s="1"/>
@@ -38024,7 +38320,7 @@
       <c r="AI781" s="1"/>
       <c r="AJ781" s="1"/>
     </row>
-    <row r="782" spans="2:36" s="7" customFormat="1">
+    <row r="782" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
       <c r="D782" s="1"/>
@@ -38061,7 +38357,7 @@
       <c r="AI782" s="1"/>
       <c r="AJ782" s="1"/>
     </row>
-    <row r="783" spans="2:36" s="7" customFormat="1">
+    <row r="783" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
       <c r="D783" s="1"/>
@@ -38098,7 +38394,7 @@
       <c r="AI783" s="1"/>
       <c r="AJ783" s="1"/>
     </row>
-    <row r="784" spans="2:36" s="7" customFormat="1">
+    <row r="784" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
       <c r="D784" s="1"/>
@@ -38135,7 +38431,7 @@
       <c r="AI784" s="1"/>
       <c r="AJ784" s="1"/>
     </row>
-    <row r="785" spans="2:36" s="7" customFormat="1">
+    <row r="785" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
       <c r="D785" s="1"/>
@@ -38172,7 +38468,7 @@
       <c r="AI785" s="1"/>
       <c r="AJ785" s="1"/>
     </row>
-    <row r="786" spans="2:36" s="7" customFormat="1">
+    <row r="786" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
       <c r="D786" s="1"/>
@@ -38209,7 +38505,7 @@
       <c r="AI786" s="1"/>
       <c r="AJ786" s="1"/>
     </row>
-    <row r="787" spans="2:36" s="7" customFormat="1">
+    <row r="787" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
       <c r="D787" s="1"/>
@@ -38246,7 +38542,7 @@
       <c r="AI787" s="1"/>
       <c r="AJ787" s="1"/>
     </row>
-    <row r="788" spans="2:36" s="7" customFormat="1">
+    <row r="788" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
       <c r="D788" s="1"/>
@@ -38283,7 +38579,7 @@
       <c r="AI788" s="1"/>
       <c r="AJ788" s="1"/>
     </row>
-    <row r="789" spans="2:36" s="7" customFormat="1">
+    <row r="789" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
       <c r="D789" s="1"/>
@@ -38320,7 +38616,7 @@
       <c r="AI789" s="1"/>
       <c r="AJ789" s="1"/>
     </row>
-    <row r="790" spans="2:36" s="7" customFormat="1">
+    <row r="790" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
       <c r="D790" s="1"/>
@@ -38357,7 +38653,7 @@
       <c r="AI790" s="1"/>
       <c r="AJ790" s="1"/>
     </row>
-    <row r="791" spans="2:36" s="7" customFormat="1">
+    <row r="791" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
       <c r="D791" s="1"/>
@@ -38394,7 +38690,7 @@
       <c r="AI791" s="1"/>
       <c r="AJ791" s="1"/>
     </row>
-    <row r="792" spans="2:36" s="7" customFormat="1">
+    <row r="792" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
       <c r="D792" s="1"/>
@@ -38431,7 +38727,7 @@
       <c r="AI792" s="1"/>
       <c r="AJ792" s="1"/>
     </row>
-    <row r="793" spans="2:36" s="7" customFormat="1">
+    <row r="793" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
       <c r="D793" s="1"/>
@@ -38468,7 +38764,7 @@
       <c r="AI793" s="1"/>
       <c r="AJ793" s="1"/>
     </row>
-    <row r="794" spans="2:36" s="7" customFormat="1">
+    <row r="794" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
       <c r="D794" s="1"/>
@@ -38505,7 +38801,7 @@
       <c r="AI794" s="1"/>
       <c r="AJ794" s="1"/>
     </row>
-    <row r="795" spans="2:36" s="7" customFormat="1">
+    <row r="795" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
       <c r="D795" s="1"/>
@@ -38542,7 +38838,7 @@
       <c r="AI795" s="1"/>
       <c r="AJ795" s="1"/>
     </row>
-    <row r="796" spans="2:36" s="7" customFormat="1">
+    <row r="796" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
       <c r="D796" s="1"/>
@@ -38579,7 +38875,7 @@
       <c r="AI796" s="1"/>
       <c r="AJ796" s="1"/>
     </row>
-    <row r="797" spans="2:36" s="7" customFormat="1">
+    <row r="797" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
       <c r="D797" s="1"/>
@@ -38616,7 +38912,7 @@
       <c r="AI797" s="1"/>
       <c r="AJ797" s="1"/>
     </row>
-    <row r="798" spans="2:36" s="7" customFormat="1">
+    <row r="798" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
       <c r="D798" s="1"/>
@@ -38653,7 +38949,7 @@
       <c r="AI798" s="1"/>
       <c r="AJ798" s="1"/>
     </row>
-    <row r="799" spans="2:36" s="7" customFormat="1">
+    <row r="799" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
       <c r="D799" s="1"/>
@@ -38690,7 +38986,7 @@
       <c r="AI799" s="1"/>
       <c r="AJ799" s="1"/>
     </row>
-    <row r="800" spans="2:36" s="7" customFormat="1">
+    <row r="800" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
       <c r="D800" s="1"/>
@@ -38727,7 +39023,7 @@
       <c r="AI800" s="1"/>
       <c r="AJ800" s="1"/>
     </row>
-    <row r="801" spans="2:36" s="7" customFormat="1">
+    <row r="801" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
       <c r="D801" s="1"/>
@@ -38764,7 +39060,7 @@
       <c r="AI801" s="1"/>
       <c r="AJ801" s="1"/>
     </row>
-    <row r="802" spans="2:36" s="7" customFormat="1">
+    <row r="802" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
       <c r="D802" s="1"/>
@@ -38801,7 +39097,7 @@
       <c r="AI802" s="1"/>
       <c r="AJ802" s="1"/>
     </row>
-    <row r="803" spans="2:36" s="7" customFormat="1">
+    <row r="803" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
       <c r="D803" s="1"/>
@@ -38838,7 +39134,7 @@
       <c r="AI803" s="1"/>
       <c r="AJ803" s="1"/>
     </row>
-    <row r="804" spans="2:36" s="7" customFormat="1">
+    <row r="804" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
       <c r="D804" s="1"/>
@@ -38875,7 +39171,7 @@
       <c r="AI804" s="1"/>
       <c r="AJ804" s="1"/>
     </row>
-    <row r="805" spans="2:36" s="7" customFormat="1">
+    <row r="805" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
       <c r="D805" s="1"/>
@@ -38912,7 +39208,7 @@
       <c r="AI805" s="1"/>
       <c r="AJ805" s="1"/>
     </row>
-    <row r="806" spans="2:36" s="7" customFormat="1">
+    <row r="806" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
       <c r="D806" s="1"/>
@@ -38949,7 +39245,7 @@
       <c r="AI806" s="1"/>
       <c r="AJ806" s="1"/>
     </row>
-    <row r="807" spans="2:36" s="7" customFormat="1">
+    <row r="807" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
       <c r="D807" s="1"/>
@@ -38986,7 +39282,7 @@
       <c r="AI807" s="1"/>
       <c r="AJ807" s="1"/>
     </row>
-    <row r="808" spans="2:36" s="7" customFormat="1">
+    <row r="808" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
       <c r="D808" s="1"/>
@@ -39023,7 +39319,7 @@
       <c r="AI808" s="1"/>
       <c r="AJ808" s="1"/>
     </row>
-    <row r="809" spans="2:36" s="7" customFormat="1">
+    <row r="809" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
       <c r="D809" s="1"/>
@@ -39060,7 +39356,7 @@
       <c r="AI809" s="1"/>
       <c r="AJ809" s="1"/>
     </row>
-    <row r="810" spans="2:36" s="7" customFormat="1">
+    <row r="810" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
       <c r="D810" s="1"/>
@@ -39097,7 +39393,7 @@
       <c r="AI810" s="1"/>
       <c r="AJ810" s="1"/>
     </row>
-    <row r="811" spans="2:36" s="7" customFormat="1">
+    <row r="811" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
       <c r="D811" s="1"/>
@@ -39134,7 +39430,7 @@
       <c r="AI811" s="1"/>
       <c r="AJ811" s="1"/>
     </row>
-    <row r="812" spans="2:36" s="7" customFormat="1">
+    <row r="812" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
       <c r="D812" s="1"/>
@@ -39171,7 +39467,7 @@
       <c r="AI812" s="1"/>
       <c r="AJ812" s="1"/>
     </row>
-    <row r="813" spans="2:36" s="7" customFormat="1">
+    <row r="813" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
       <c r="D813" s="1"/>
@@ -39208,7 +39504,7 @@
       <c r="AI813" s="1"/>
       <c r="AJ813" s="1"/>
     </row>
-    <row r="814" spans="2:36" s="7" customFormat="1">
+    <row r="814" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
       <c r="D814" s="1"/>
@@ -39245,7 +39541,7 @@
       <c r="AI814" s="1"/>
       <c r="AJ814" s="1"/>
     </row>
-    <row r="815" spans="2:36">
+    <row r="815" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
       <c r="D815" s="1"/>
@@ -39282,7 +39578,7 @@
       <c r="AI815" s="3"/>
       <c r="AJ815" s="3"/>
     </row>
-    <row r="816" spans="2:36">
+    <row r="816" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
       <c r="D816" s="3"/>
@@ -39319,7 +39615,7 @@
       <c r="AI816" s="3"/>
       <c r="AJ816" s="3"/>
     </row>
-    <row r="817" spans="2:36">
+    <row r="817" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
       <c r="D817" s="3"/>
@@ -39356,7 +39652,7 @@
       <c r="AI817" s="3"/>
       <c r="AJ817" s="3"/>
     </row>
-    <row r="818" spans="2:36">
+    <row r="818" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
       <c r="D818" s="3"/>
@@ -39393,7 +39689,7 @@
       <c r="AI818" s="3"/>
       <c r="AJ818" s="3"/>
     </row>
-    <row r="819" spans="2:36">
+    <row r="819" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
       <c r="D819" s="3"/>
@@ -39430,7 +39726,7 @@
       <c r="AI819" s="3"/>
       <c r="AJ819" s="3"/>
     </row>
-    <row r="820" spans="2:36">
+    <row r="820" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
       <c r="D820" s="3"/>
@@ -39467,7 +39763,7 @@
       <c r="AI820" s="3"/>
       <c r="AJ820" s="3"/>
     </row>
-    <row r="821" spans="2:36">
+    <row r="821" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D821" s="3"/>
     </row>
   </sheetData>
@@ -39477,24 +39773,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
